--- a/FYI/Table_of_all_scan_codes.xlsx
+++ b/FYI/Table_of_all_scan_codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="411">
   <si>
     <t>(Alt + PrintScreen)</t>
   </si>
@@ -940,13 +940,322 @@
   </si>
   <si>
     <t>{NumpadEnter}</t>
+  </si>
+  <si>
+    <t>SC0E8</t>
+  </si>
+  <si>
+    <t>"scan code of an unassigned key" that I use for... reasons.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/1542350/what-are-the-scan-codes-for</t>
+  </si>
+  <si>
+    <t>Key Pressed     Javascript Key Code</t>
+  </si>
+  <si>
+    <t>backspace   8</t>
+  </si>
+  <si>
+    <t>tab     9</t>
+  </si>
+  <si>
+    <t>enter   13</t>
+  </si>
+  <si>
+    <t>shift   16</t>
+  </si>
+  <si>
+    <t>ctrl    17</t>
+  </si>
+  <si>
+    <t>alt     18</t>
+  </si>
+  <si>
+    <t>pause/break     19</t>
+  </si>
+  <si>
+    <t>caps lock   20</t>
+  </si>
+  <si>
+    <t>escape  27</t>
+  </si>
+  <si>
+    <t>page up     33</t>
+  </si>
+  <si>
+    <t>page down   34</t>
+  </si>
+  <si>
+    <t>end     35</t>
+  </si>
+  <si>
+    <t>home    36</t>
+  </si>
+  <si>
+    <t>left arrow  37</t>
+  </si>
+  <si>
+    <t>up arrow    38</t>
+  </si>
+  <si>
+    <t>right arrow     39</t>
+  </si>
+  <si>
+    <t>down arrow  40</t>
+  </si>
+  <si>
+    <t>insert  45</t>
+  </si>
+  <si>
+    <t>delete  46</t>
+  </si>
+  <si>
+    <t>0   48</t>
+  </si>
+  <si>
+    <t>1   49</t>
+  </si>
+  <si>
+    <t>2   50</t>
+  </si>
+  <si>
+    <t>3   51</t>
+  </si>
+  <si>
+    <t>4   52</t>
+  </si>
+  <si>
+    <t>5   53</t>
+  </si>
+  <si>
+    <t>6   54</t>
+  </si>
+  <si>
+    <t>7   55</t>
+  </si>
+  <si>
+    <t>8   56</t>
+  </si>
+  <si>
+    <t>9   57</t>
+  </si>
+  <si>
+    <t>a   65</t>
+  </si>
+  <si>
+    <t>b   66</t>
+  </si>
+  <si>
+    <t>c   67</t>
+  </si>
+  <si>
+    <t>d   68</t>
+  </si>
+  <si>
+    <t>e   69</t>
+  </si>
+  <si>
+    <t>f   70</t>
+  </si>
+  <si>
+    <t>g   71</t>
+  </si>
+  <si>
+    <t>h   72</t>
+  </si>
+  <si>
+    <t>i   73</t>
+  </si>
+  <si>
+    <t>j   74</t>
+  </si>
+  <si>
+    <t>k   75</t>
+  </si>
+  <si>
+    <t>l   76</t>
+  </si>
+  <si>
+    <t>m   77</t>
+  </si>
+  <si>
+    <t>n   78</t>
+  </si>
+  <si>
+    <t>o   79</t>
+  </si>
+  <si>
+    <t>p   80</t>
+  </si>
+  <si>
+    <t>q   81</t>
+  </si>
+  <si>
+    <t>r   82</t>
+  </si>
+  <si>
+    <t>s   83</t>
+  </si>
+  <si>
+    <t>t   84</t>
+  </si>
+  <si>
+    <t>u   85</t>
+  </si>
+  <si>
+    <t>v   86</t>
+  </si>
+  <si>
+    <t>w   87</t>
+  </si>
+  <si>
+    <t>x   88</t>
+  </si>
+  <si>
+    <t>y   89</t>
+  </si>
+  <si>
+    <t>z   90</t>
+  </si>
+  <si>
+    <t>left window key     91</t>
+  </si>
+  <si>
+    <t>right window key    92</t>
+  </si>
+  <si>
+    <t>select key  93</t>
+  </si>
+  <si>
+    <t>numpad 0    96</t>
+  </si>
+  <si>
+    <t>numpad 1    97</t>
+  </si>
+  <si>
+    <t>numpad 2    98</t>
+  </si>
+  <si>
+    <t>numpad 3    99</t>
+  </si>
+  <si>
+    <t>numpad 4    100</t>
+  </si>
+  <si>
+    <t>numpad 5    101</t>
+  </si>
+  <si>
+    <t>numpad 6    102</t>
+  </si>
+  <si>
+    <t>numpad 7    103</t>
+  </si>
+  <si>
+    <t>numpad 8    104</t>
+  </si>
+  <si>
+    <t>numpad 9    105</t>
+  </si>
+  <si>
+    <t>multiply    106</t>
+  </si>
+  <si>
+    <t>add     107</t>
+  </si>
+  <si>
+    <t>subtract    109</t>
+  </si>
+  <si>
+    <t>decimal point   110</t>
+  </si>
+  <si>
+    <t>divide  111</t>
+  </si>
+  <si>
+    <t>f1  112</t>
+  </si>
+  <si>
+    <t>f2  113</t>
+  </si>
+  <si>
+    <t>f3  114</t>
+  </si>
+  <si>
+    <t>f4  115</t>
+  </si>
+  <si>
+    <t>f5  116</t>
+  </si>
+  <si>
+    <t>f6  117</t>
+  </si>
+  <si>
+    <t>f7  118</t>
+  </si>
+  <si>
+    <t>f8  119</t>
+  </si>
+  <si>
+    <t>f9  120</t>
+  </si>
+  <si>
+    <t>f10     121</t>
+  </si>
+  <si>
+    <t>f11     122</t>
+  </si>
+  <si>
+    <t>f12     123</t>
+  </si>
+  <si>
+    <t>num lock    144</t>
+  </si>
+  <si>
+    <t>scroll lock     145</t>
+  </si>
+  <si>
+    <t>semi-colon  186</t>
+  </si>
+  <si>
+    <t>equal sign  187</t>
+  </si>
+  <si>
+    <t>comma   188</t>
+  </si>
+  <si>
+    <t>dash    189</t>
+  </si>
+  <si>
+    <t>period  190</t>
+  </si>
+  <si>
+    <t>forward slash   191</t>
+  </si>
+  <si>
+    <t>grave accent    192</t>
+  </si>
+  <si>
+    <t>open bracket    219</t>
+  </si>
+  <si>
+    <t>back slash  220</t>
+  </si>
+  <si>
+    <t>close braket    221</t>
+  </si>
+  <si>
+    <t>single quote    222</t>
+  </si>
+  <si>
+    <t>USELESS ACTUALLY. Not the same as AHK.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +1291,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1006,14 +1323,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1044,13 +1362,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1339,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1355,19 +1692,26 @@
     <col min="7" max="7" width="10.453125" customWidth="1"/>
     <col min="8" max="8" width="19.36328125" customWidth="1"/>
     <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="13" max="13" width="36.7265625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="M2" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="C5" t="s">
         <v>295</v>
       </c>
@@ -1381,7 +1725,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -1390,7 +1734,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1399,7 +1743,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -1408,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1417,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1426,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -1434,8 +1778,11 @@
       <c r="E11" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="M11" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -1444,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -1453,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -1462,7 +1809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -1470,8 +1817,11 @@
       <c r="E15" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="M15" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -1479,8 +1829,11 @@
       <c r="E16" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="M16" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -1488,8 +1841,11 @@
       <c r="E17" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="M17" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="D18" s="2" t="s">
         <v>15</v>
@@ -1497,8 +1853,11 @@
       <c r="E18" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="M18" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="D19" s="2" t="s">
         <v>16</v>
@@ -1506,8 +1865,11 @@
       <c r="E19" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="M19" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="D20" s="2" t="s">
         <v>17</v>
@@ -1521,8 +1883,11 @@
       <c r="H20" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="M20" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -1539,8 +1904,11 @@
       <c r="I21" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="M21" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
@@ -1557,8 +1925,11 @@
       <c r="I22" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="M22" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
       <c r="D23" s="2" t="s">
         <v>20</v>
@@ -1575,8 +1946,11 @@
       <c r="I23" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="M23" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="D24" s="2" t="s">
         <v>21</v>
@@ -1593,8 +1967,11 @@
       <c r="I24" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="M24" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="D25" s="2" t="s">
         <v>22</v>
@@ -1611,8 +1988,11 @@
       <c r="I25" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="M25" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -1629,8 +2009,11 @@
       <c r="I26" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="M26" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="D27" s="2" t="s">
         <v>24</v>
@@ -1647,8 +2030,11 @@
       <c r="I27" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="M27" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="D28" s="2" t="s">
         <v>25</v>
@@ -1665,8 +2051,11 @@
       <c r="I28" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="M28" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="D29" s="2" t="s">
         <v>26</v>
@@ -1683,8 +2072,11 @@
       <c r="I29" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="M29" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
       <c r="D30" s="2" t="s">
         <v>27</v>
@@ -1701,28 +2093,35 @@
       <c r="I30" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="3">
+      <c r="M30" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="15">
         <v>50</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="18" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="M31" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>29</v>
@@ -1739,8 +2138,11 @@
       <c r="I32" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="M32" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1757,8 +2159,11 @@
       <c r="I33" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="M33" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
       <c r="D34" s="2" t="s">
         <v>31</v>
@@ -1769,8 +2174,11 @@
       <c r="I34" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="M34" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
       <c r="D35" s="2" t="s">
         <v>32</v>
@@ -1781,8 +2189,11 @@
       <c r="I35" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="M35" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -1793,8 +2204,11 @@
       <c r="I36" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="M36" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1"/>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -1802,17 +2216,11 @@
       <c r="E37" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G37" t="s">
-        <v>281</v>
-      </c>
-      <c r="H37" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="M37" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1"/>
       <c r="D38" s="2" t="s">
         <v>35</v>
@@ -1821,25 +2229,42 @@
         <v>218</v>
       </c>
       <c r="G38" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I39" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1"/>
-      <c r="D39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="M39" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1"/>
       <c r="D40" s="2" t="s">
         <v>37</v>
@@ -1847,8 +2272,11 @@
       <c r="E40" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="M40" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1"/>
       <c r="D41" s="2" t="s">
         <v>38</v>
@@ -1856,8 +2284,11 @@
       <c r="E41" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="M41" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
       <c r="D42" s="2" t="s">
         <v>39</v>
@@ -1865,8 +2296,11 @@
       <c r="E42" s="7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="M42" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1"/>
       <c r="D43" s="2" t="s">
         <v>40</v>
@@ -1874,8 +2308,11 @@
       <c r="E43" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="M43" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1"/>
       <c r="D44" s="2" t="s">
         <v>41</v>
@@ -1883,8 +2320,11 @@
       <c r="E44" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="M44" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
       <c r="D45" s="2" t="s">
         <v>42</v>
@@ -1892,8 +2332,11 @@
       <c r="E45" s="7" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="M45" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1"/>
       <c r="D46" s="2" t="s">
         <v>43</v>
@@ -1901,8 +2344,11 @@
       <c r="E46" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="M46" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1"/>
       <c r="D47" s="2" t="s">
         <v>44</v>
@@ -1910,8 +2356,11 @@
       <c r="E47" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="M47" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
       <c r="D48" s="2" t="s">
         <v>45</v>
@@ -1919,8 +2368,11 @@
       <c r="E48" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="M48" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1"/>
       <c r="D49" s="2" t="s">
         <v>46</v>
@@ -1928,8 +2380,11 @@
       <c r="E49" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="M49" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
       <c r="D50" s="2" t="s">
         <v>47</v>
@@ -1937,8 +2392,11 @@
       <c r="E50" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="M50" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
       <c r="D51" s="2" t="s">
         <v>48</v>
@@ -1946,8 +2404,11 @@
       <c r="E51" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="M51" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
       <c r="D52" s="2" t="s">
         <v>49</v>
@@ -1955,8 +2416,11 @@
       <c r="E52" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="M52" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
       <c r="D53" s="2" t="s">
         <v>50</v>
@@ -1964,8 +2428,11 @@
       <c r="E53" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="M53" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
       <c r="D54" s="2" t="s">
         <v>51</v>
@@ -1973,8 +2440,11 @@
       <c r="E54" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="M54" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1"/>
       <c r="D55" s="2" t="s">
         <v>52</v>
@@ -1982,8 +2452,11 @@
       <c r="E55" s="7" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="M55" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1"/>
       <c r="D56" s="2" t="s">
         <v>53</v>
@@ -1991,8 +2464,11 @@
       <c r="E56" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="M56" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
       <c r="D57" s="2" t="s">
         <v>54</v>
@@ -2000,8 +2476,11 @@
       <c r="E57" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="M57" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
       <c r="D58" s="2" t="s">
         <v>55</v>
@@ -2009,8 +2488,11 @@
       <c r="E58" s="7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="M58" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="D59" s="2" t="s">
         <v>56</v>
@@ -2018,8 +2500,11 @@
       <c r="E59" s="7" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="M59" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1"/>
       <c r="D60" s="2" t="s">
         <v>57</v>
@@ -2027,8 +2512,11 @@
       <c r="E60" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="M60" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1"/>
       <c r="D61" s="2" t="s">
         <v>58</v>
@@ -2036,8 +2524,11 @@
       <c r="E61" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="M61" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1"/>
       <c r="D62" s="2" t="s">
         <v>59</v>
@@ -2045,8 +2536,11 @@
       <c r="E62" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="M62" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1"/>
       <c r="D63" s="2" t="s">
         <v>60</v>
@@ -2054,8 +2548,11 @@
       <c r="E63" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="M63" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1"/>
       <c r="D64" s="2" t="s">
         <v>61</v>
@@ -2063,8 +2560,11 @@
       <c r="E64" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="M64" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1"/>
       <c r="D65" s="2" t="s">
         <v>62</v>
@@ -2072,8 +2572,11 @@
       <c r="E65" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="M65" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1"/>
       <c r="D66" s="2" t="s">
         <v>63</v>
@@ -2081,8 +2584,11 @@
       <c r="E66" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="M66" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1"/>
       <c r="D67" s="2" t="s">
         <v>64</v>
@@ -2090,8 +2596,11 @@
       <c r="E67" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="M67" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1"/>
       <c r="D68" s="2" t="s">
         <v>65</v>
@@ -2099,8 +2608,11 @@
       <c r="E68" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="M68" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1"/>
       <c r="D69" s="2" t="s">
         <v>66</v>
@@ -2108,8 +2620,11 @@
       <c r="E69" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="M69" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1"/>
       <c r="D70" s="2" t="s">
         <v>67</v>
@@ -2117,8 +2632,11 @@
       <c r="E70" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="M70" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1"/>
       <c r="D71" s="2" t="s">
         <v>68</v>
@@ -2126,8 +2644,11 @@
       <c r="E71" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="M71" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1"/>
       <c r="D72" s="2" t="s">
         <v>69</v>
@@ -2135,8 +2656,11 @@
       <c r="E72" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="M72" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1"/>
       <c r="D73" s="2" t="s">
         <v>70</v>
@@ -2144,8 +2668,11 @@
       <c r="E73" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="M73" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1"/>
       <c r="D74" s="2" t="s">
         <v>71</v>
@@ -2153,8 +2680,11 @@
       <c r="E74" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="M74" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1"/>
       <c r="D75" s="2" t="s">
         <v>72</v>
@@ -2165,8 +2695,11 @@
       <c r="F75" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="M75" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1"/>
       <c r="D76" s="2" t="s">
         <v>73</v>
@@ -2174,8 +2707,11 @@
       <c r="E76" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="M76" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1"/>
       <c r="C77" s="3">
         <v>67</v>
@@ -2186,8 +2722,11 @@
       <c r="E77" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="M77" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1"/>
       <c r="C78" s="3">
         <v>68</v>
@@ -2198,8 +2737,11 @@
       <c r="E78" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="M78" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1"/>
       <c r="C79" s="3">
         <v>69</v>
@@ -2210,8 +2752,11 @@
       <c r="E79" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="M79" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1"/>
       <c r="C80" s="3" t="s">
         <v>243</v>
@@ -2222,8 +2767,11 @@
       <c r="E80" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="M80" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1"/>
       <c r="C81" s="3">
         <v>64</v>
@@ -2234,8 +2782,11 @@
       <c r="E81" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="M81" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1"/>
       <c r="C82" s="3">
         <v>65</v>
@@ -2246,8 +2797,11 @@
       <c r="E82" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="M82" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1"/>
       <c r="C83" s="3">
         <v>66</v>
@@ -2258,8 +2812,11 @@
       <c r="E83" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="M83" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1"/>
       <c r="C84" s="3" t="s">
         <v>238</v>
@@ -2270,8 +2827,11 @@
       <c r="E84" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="M84" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1"/>
       <c r="C85" s="3">
         <v>61</v>
@@ -2282,8 +2842,11 @@
       <c r="E85" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="M85" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1"/>
       <c r="C86" s="3">
         <v>62</v>
@@ -2294,8 +2857,11 @@
       <c r="E86" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="M86" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1"/>
       <c r="C87" s="3">
         <v>63</v>
@@ -2306,8 +2872,11 @@
       <c r="E87" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="M87" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1"/>
       <c r="C88" s="3">
         <v>60</v>
@@ -2318,8 +2887,11 @@
       <c r="E88" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="M88" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1"/>
       <c r="C89" s="3" t="s">
         <v>242</v>
@@ -2330,8 +2902,11 @@
       <c r="E89" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="M89" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1"/>
       <c r="C90" s="3" t="s">
         <v>296</v>
@@ -2345,8 +2920,11 @@
       <c r="G90" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="M90" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1"/>
       <c r="D91" s="2" t="s">
         <v>87</v>
@@ -2354,8 +2932,11 @@
       <c r="E91" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="M91" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1"/>
       <c r="C92" s="3" t="s">
         <v>283</v>
@@ -2366,8 +2947,11 @@
       <c r="E92" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="M92" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1"/>
       <c r="C93" s="3" t="s">
         <v>245</v>
@@ -2378,8 +2962,11 @@
       <c r="E93" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="M93" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1"/>
       <c r="C94" s="3" t="s">
         <v>244</v>
@@ -2390,8 +2977,11 @@
       <c r="E94" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="M94" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1"/>
       <c r="C95" s="3" t="s">
         <v>297</v>
@@ -2405,8 +2995,11 @@
       <c r="F95" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="M95" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1"/>
       <c r="C96" s="3" t="s">
         <v>252</v>
@@ -2417,8 +3010,11 @@
       <c r="E96" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="M96" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1"/>
       <c r="C97" s="3" t="s">
         <v>135</v>
@@ -2429,8 +3025,11 @@
       <c r="E97" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="M97" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1"/>
       <c r="D98" s="2" t="s">
         <v>94</v>
@@ -2438,8 +3037,11 @@
       <c r="E98" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="M98" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1"/>
       <c r="D99" s="2" t="s">
         <v>95</v>
@@ -2447,8 +3049,11 @@
       <c r="E99" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="M99" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1"/>
       <c r="D100" s="2" t="s">
         <v>96</v>
@@ -2456,8 +3061,11 @@
       <c r="E100" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="M100" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="13.5" customHeight="1">
       <c r="A101" s="1"/>
       <c r="D101" s="2" t="s">
         <v>97</v>
@@ -2465,8 +3073,11 @@
       <c r="E101" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="M101" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1"/>
       <c r="D102" s="2" t="s">
         <v>98</v>
@@ -2474,8 +3085,11 @@
       <c r="E102" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="M102" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1"/>
       <c r="D103" s="2" t="s">
         <v>99</v>
@@ -2483,8 +3097,11 @@
       <c r="E103" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="M103" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1"/>
       <c r="C104" s="3" t="s">
         <v>305</v>
@@ -2495,8 +3112,11 @@
       <c r="E104" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="M104" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1"/>
       <c r="C105" s="3" t="s">
         <v>301</v>
@@ -2507,8 +3127,11 @@
       <c r="E105" s="11" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="M105" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1"/>
       <c r="D106" s="2" t="s">
         <v>102</v>
@@ -2516,8 +3139,11 @@
       <c r="E106" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="M106" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1"/>
       <c r="D107" s="2" t="s">
         <v>103</v>
@@ -2525,8 +3151,11 @@
       <c r="E107" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="M107" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1"/>
       <c r="D108" s="2" t="s">
         <v>104</v>
@@ -2534,8 +3163,11 @@
       <c r="E108" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="M108" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1"/>
       <c r="D109" s="2" t="s">
         <v>105</v>
@@ -2543,8 +3175,11 @@
       <c r="E109" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="M109" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1"/>
       <c r="D110" s="2" t="s">
         <v>106</v>
@@ -2552,8 +3187,11 @@
       <c r="E110" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="M110" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1"/>
       <c r="D111" s="2" t="s">
         <v>107</v>
@@ -2561,8 +3199,11 @@
       <c r="E111" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="M111" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1"/>
       <c r="D112" s="2" t="s">
         <v>108</v>
@@ -2570,8 +3211,11 @@
       <c r="E112" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="M112" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1"/>
       <c r="D113" s="2" t="s">
         <v>109</v>
@@ -2579,8 +3223,11 @@
       <c r="E113" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="M113" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1"/>
       <c r="D114" s="2" t="s">
         <v>110</v>
@@ -2589,7 +3236,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:13">
       <c r="A115" s="1"/>
       <c r="D115" s="2" t="s">
         <v>111</v>
@@ -2598,7 +3245,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:13">
       <c r="A116" s="1"/>
       <c r="D116" s="2" t="s">
         <v>112</v>
@@ -2607,7 +3254,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:13">
       <c r="A117" s="1"/>
       <c r="D117" s="2" t="s">
         <v>113</v>
@@ -2616,7 +3263,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:13">
       <c r="A118" s="1"/>
       <c r="C118" s="3">
         <v>0</v>
@@ -2631,7 +3278,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:13">
       <c r="A119" s="1"/>
       <c r="C119" s="3" t="s">
         <v>250</v>
@@ -2646,7 +3293,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:13">
       <c r="A120" s="1"/>
       <c r="D120" s="2" t="s">
         <v>116</v>
@@ -2658,7 +3305,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:13">
       <c r="A121" s="1"/>
       <c r="C121" s="3" t="s">
         <v>256</v>
@@ -2673,7 +3320,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:13">
       <c r="A122" s="1"/>
       <c r="D122" s="2" t="s">
         <v>118</v>
@@ -2682,7 +3329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:13">
       <c r="A123" s="1"/>
       <c r="D123" s="2" t="s">
         <v>119</v>
@@ -2691,7 +3338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:13">
       <c r="A124" s="1"/>
       <c r="C124" s="3">
         <v>87</v>
@@ -2703,7 +3350,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:13">
       <c r="A125" s="1"/>
       <c r="D125" s="2" t="s">
         <v>120</v>
@@ -2712,7 +3359,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:13">
       <c r="A126" s="1"/>
       <c r="D126" s="2" t="s">
         <v>121</v>
@@ -2721,7 +3368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:13">
       <c r="A127" s="1"/>
       <c r="D127" s="2" t="s">
         <v>122</v>
@@ -2733,7 +3380,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:13">
       <c r="A128" s="1"/>
       <c r="D128" s="2" t="s">
         <v>123</v>
@@ -2802,6 +3449,14 @@
         <v>130</v>
       </c>
     </row>
+    <row r="137" spans="1:6">
+      <c r="D137" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
     <row r="140" spans="1:6">
       <c r="C140" s="3" t="s">
         <v>239</v>
@@ -2927,9 +3582,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D163" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/FYI/Table_of_all_scan_codes.xlsx
+++ b/FYI/Table_of_all_scan_codes.xlsx
@@ -22,7 +22,58 @@
     <author>TaranVanHemert</author>
   </authors>
   <commentList>
-    <comment ref="D138" authorId="0">
+    <comment ref="F120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TaranVanHemert:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+VK is FF according to Corsair
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TaranVanHemert:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+according to Corsair.
+This is troublesome.
+I should tell them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,10 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="432">
-  <si>
-    <t>(Alt + PrintScreen)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="526">
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/API/KeyboardEvent/code</t>
   </si>
@@ -773,9 +821,6 @@
     <t>SC11C</t>
   </si>
   <si>
-    <t>{NumpadDot}</t>
-  </si>
-  <si>
     <t>6E</t>
   </si>
   <si>
@@ -824,9 +869,6 @@
     <t>4D</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
     <t>SC133</t>
   </si>
   <si>
@@ -974,9 +1016,6 @@
     <t>SC0E8</t>
   </si>
   <si>
-    <t>"scan code of an unassigned key" that I use for... reasons.</t>
-  </si>
-  <si>
     <t>https://stackoverflow.com/questions/1542350/what-are-the-scan-codes-for</t>
   </si>
   <si>
@@ -1289,24 +1328,6 @@
     <t>My name for it</t>
   </si>
   <si>
-    <t>Leftshift</t>
-  </si>
-  <si>
-    <t>left ALT</t>
-  </si>
-  <si>
-    <t>Logitech K120</t>
-  </si>
-  <si>
-    <t>right ALT</t>
-  </si>
-  <si>
-    <t>left WIN</t>
-  </si>
-  <si>
-    <t>right SHIFT -OR- "email tab"</t>
-  </si>
-  <si>
     <t>SCALE (PR) -- PREV COMMENT (Word)</t>
   </si>
   <si>
@@ -1319,41 +1340,353 @@
     <t>ANCHOR HORIZONTAL</t>
   </si>
   <si>
-    <t>LOCKS (PR)</t>
-  </si>
-  <si>
-    <t>rightWin azio</t>
-  </si>
-  <si>
-    <t>rightCtrl azio</t>
-  </si>
-  <si>
-    <t>leftCTRL --OR-- [appskey to scancode 62] ???</t>
-  </si>
-  <si>
     <t>free? - this WAS right CTRL</t>
   </si>
   <si>
     <t>1d,0,1 is left… 1d,0,2 is right……</t>
   </si>
   <si>
-    <t>SEE: SC01D</t>
-  </si>
-  <si>
-    <t>CAPSLOCK remap</t>
-  </si>
-  <si>
-    <t>AZIO keyboard</t>
-  </si>
-  <si>
-    <t>Jelly comb numpad</t>
+    <t>keyboard Lang 3</t>
+  </si>
+  <si>
+    <t>Corsair's name</t>
+  </si>
+  <si>
+    <t>Keyboard Lang 4</t>
+  </si>
+  <si>
+    <t>Keyboard Lang 5</t>
+  </si>
+  <si>
+    <t>Keyboard Lang 1</t>
+  </si>
+  <si>
+    <t>Keyboard Lang 2</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 1</t>
+  </si>
+  <si>
+    <t>Keyboard intl 2</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 3</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 4</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 5</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 6</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Keyboard Non-US # and ~</t>
+  </si>
+  <si>
+    <t>Keyboard Non-US \ and |</t>
+  </si>
+  <si>
+    <t>Keypad , (Brazilian Keypad)</t>
+  </si>
+  <si>
+    <t>Does not work…</t>
+  </si>
+  <si>
+    <t>NumpadDot</t>
+  </si>
+  <si>
+    <t>IntlBackslash</t>
+  </si>
+  <si>
+    <t>NumpadDecimal</t>
+  </si>
+  <si>
+    <t>XButton1</t>
+  </si>
+  <si>
+    <t>XButton2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WheelLeft  </t>
+  </si>
+  <si>
+    <t>WheelRight</t>
+  </si>
+  <si>
+    <t>Forward Button</t>
+  </si>
+  <si>
+    <t>Back Button</t>
+  </si>
+  <si>
+    <t>Tilt Left</t>
+  </si>
+  <si>
+    <t>Tilt Right</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>blocked cause I kept hitting accidentally</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>SCO80</t>
+  </si>
+  <si>
+    <t>SCO81</t>
+  </si>
+  <si>
+    <t>SCO82</t>
+  </si>
+  <si>
+    <t>cannot find a Corsair trigger</t>
+  </si>
+  <si>
+    <t>SCO83</t>
+  </si>
+  <si>
+    <t>SCO84</t>
+  </si>
+  <si>
+    <t>SCO85</t>
+  </si>
+  <si>
+    <t>SCO86</t>
+  </si>
+  <si>
+    <t>SCO87</t>
+  </si>
+  <si>
+    <t>SCO88</t>
+  </si>
+  <si>
+    <t>SCO89</t>
+  </si>
+  <si>
+    <t>SCO90</t>
+  </si>
+  <si>
+    <t>SCO8A</t>
+  </si>
+  <si>
+    <t>SCO8B</t>
+  </si>
+  <si>
+    <t>SCO8C</t>
+  </si>
+  <si>
+    <t>SCO8D</t>
+  </si>
+  <si>
+    <t>SCO8E</t>
+  </si>
+  <si>
+    <t>SCO8F</t>
+  </si>
+  <si>
+    <t>SC0E5</t>
+  </si>
+  <si>
+    <t>SC0E6</t>
+  </si>
+  <si>
+    <t>SC0E7</t>
+  </si>
+  <si>
+    <t>SCO91</t>
+  </si>
+  <si>
+    <t>SCO92</t>
+  </si>
+  <si>
+    <t>SCO93</t>
+  </si>
+  <si>
+    <t>SCO94</t>
+  </si>
+  <si>
+    <t>SCO95</t>
+  </si>
+  <si>
+    <t>SCO96</t>
+  </si>
+  <si>
+    <t>SCO97</t>
+  </si>
+  <si>
+    <t>SCO98</t>
+  </si>
+  <si>
+    <t>SCO99</t>
+  </si>
+  <si>
+    <t>SCO9A</t>
+  </si>
+  <si>
+    <t>SCO9B</t>
+  </si>
+  <si>
+    <t>SCO9C</t>
+  </si>
+  <si>
+    <t>SCO9D</t>
+  </si>
+  <si>
+    <t>SCO9E</t>
+  </si>
+  <si>
+    <t>SCO9F</t>
+  </si>
+  <si>
+    <t>////////</t>
+  </si>
+  <si>
+    <t>SC0E0</t>
+  </si>
+  <si>
+    <t>SC0E1</t>
+  </si>
+  <si>
+    <t>SC0E2</t>
+  </si>
+  <si>
+    <t>SC0E3</t>
+  </si>
+  <si>
+    <t>SC0E4</t>
+  </si>
+  <si>
+    <t>skipping a bunch here…</t>
+  </si>
+  <si>
+    <t>SC0E9</t>
+  </si>
+  <si>
+    <t>SC0EA</t>
+  </si>
+  <si>
+    <t>SC0EB</t>
+  </si>
+  <si>
+    <t>SC0EC</t>
+  </si>
+  <si>
+    <t>SC0ED</t>
+  </si>
+  <si>
+    <t>SC0EE</t>
+  </si>
+  <si>
+    <t>SC0EF</t>
+  </si>
+  <si>
+    <t>///////</t>
+  </si>
+  <si>
+    <t>skipping a bunch here….</t>
+  </si>
+  <si>
+    <t>"scan code of an unassigned key" that I use to tell the computer "yeah, treat this like a keyboard," and also to nullify ALT's effect as a menu accelerator.</t>
+  </si>
+  <si>
+    <t>See also: SC01D</t>
+  </si>
+  <si>
+    <t>nothing...?</t>
+  </si>
+  <si>
+    <t>https://jacksautohotkeyblog.wordpress.com/2016/04/14/understanding-autohotkey-keyboard-scan-codes-and-virtual-key-codes-beginning-hotkeys-part-12/</t>
+  </si>
+  <si>
+    <t>Ignore all this, I don't remember where it came from</t>
+  </si>
+  <si>
+    <t>Jelly comb numpad (not anymore)</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe: left WIN</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe: left ALT</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe: right SHIFT -OR- "email tab"</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe: leftCTRL --OR-- [appskey to scancode 62] ???</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe: Leftshift</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe:  right ALT</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe:  rightWin (AZIO keyboard)</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe: rightCtrl (Azio keyboard)</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>This seems dangerous AF to use - would probably result in lots of cross talk</t>
+  </si>
+  <si>
+    <t>The point is, if you pair a different virtual key with the same scan code, you can get a different result…</t>
+  </si>
+  <si>
+    <t>CAPSLOCK is remapped to this (main keyboard)</t>
+  </si>
+  <si>
+    <t>"LOCKS" (Premiere mod)</t>
+  </si>
+  <si>
+    <t>Logitech K120 - Master wrapping key for 2nd keyboard. I could actually use any scan code and it would work, no need to waste a function key…</t>
+  </si>
+  <si>
+    <t>AZIO keyboard - Master wrapping key for 3rd keyboard. Could use pretty much any other scan code.</t>
+  </si>
+  <si>
+    <t>In my experiments, I've had difficulty getting AHK to recognise scan codes 080 and higher…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,8 +1758,80 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,8 +1855,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1557,6 +1968,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1567,7 +1989,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1577,9 +1999,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1604,9 +2023,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1617,30 +2033,61 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -1652,6 +2099,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC00CC"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -1943,11 +2391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:O217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+      <pane ySplit="2" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1955,1989 +2403,2493 @@
     <col min="1" max="1" width="6.90625" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="19.36328125" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" customWidth="1"/>
-    <col min="14" max="14" width="36.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="36.7265625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" s="38" customFormat="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="O1" s="41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="43" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" s="25" customFormat="1">
+      <c r="B3" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="N1" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="32" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="N2" s="36"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1"/>
+      <c r="D3" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" s="25" customFormat="1">
+      <c r="B4" s="31" t="s">
+        <v>446</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" s="25" customFormat="1">
       <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="D6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="D7" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" t="s">
-        <v>294</v>
-      </c>
-      <c r="I17" t="s">
-        <v>293</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" t="s">
-        <v>283</v>
-      </c>
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>9</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" t="s">
-        <v>287</v>
+        <v>13</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>507</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" t="s">
-        <v>286</v>
+        <v>14</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>520</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H22" t="s">
-        <v>285</v>
-      </c>
-      <c r="I22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="O22" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" t="s">
-        <v>288</v>
-      </c>
-      <c r="I23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" t="s">
-        <v>289</v>
-      </c>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" t="s">
-        <v>290</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" t="s">
-        <v>291</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" t="s">
-        <v>292</v>
-      </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="B28" s="13">
-        <v>50</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" t="s">
-        <v>278</v>
-      </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H30" t="s">
-        <v>279</v>
-      </c>
-      <c r="I30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E32" t="s">
-        <v>427</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1"/>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>25</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="O32" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="B33" s="12">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="I33" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" t="s">
-        <v>280</v>
-      </c>
-      <c r="I35" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="N35" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="J35" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="H36" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="C36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>30</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>31</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>32</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="O39" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="C41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="I41" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="O42" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="O43" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>37</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="O44" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>38</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="O45" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>39</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="O46" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="O47" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>208</v>
+      </c>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="O48" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="O49" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="N50" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>43</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="O50" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>427</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>44</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" t="s">
+        <v>428</v>
+      </c>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="O51" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="N52" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>45</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="O52" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="N53" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="O53" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="N54" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>47</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="O54" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="N55" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>48</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="O55" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="N56" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="J56" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N57" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>50</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="N58" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>51</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="N59" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>52</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N60" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>53</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="N61" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N62" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>55</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N63" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>56</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N64" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>57</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N65" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>58</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="N66" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>59</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>60</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N68" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N69" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N70" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N71" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" t="s">
-        <v>224</v>
-      </c>
-      <c r="N72" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N73" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="3">
+      <c r="C74" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="N74" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="D74" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="3">
+      <c r="C75" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N75" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="D75" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="3">
+      <c r="C76" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N76" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="D76" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="N77" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>70</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" t="s">
+        <v>223</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="3">
-        <v>64</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N78" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>71</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1"/>
       <c r="B79" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N79" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>72</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1"/>
       <c r="B80" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="N80" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>73</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="3" t="s">
-        <v>237</v>
+      <c r="B81" s="3">
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="N81" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="3">
-        <v>61</v>
+      <c r="B82" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N82" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>75</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1"/>
       <c r="B83" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="N83" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O83" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1"/>
       <c r="B84" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N84" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>77</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1"/>
       <c r="B85" s="3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N85" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>78</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O85" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1"/>
       <c r="B86" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="N86" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>79</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="3" t="s">
-        <v>295</v>
+      <c r="B87" s="3">
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H87" t="s">
-        <v>0</v>
-      </c>
-      <c r="N87" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>80</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="1"/>
+      <c r="B88" s="3">
+        <v>62</v>
+      </c>
       <c r="C88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="N88" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="3" t="s">
-        <v>282</v>
+      <c r="B89" s="3">
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N89" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>82</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="O89" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="3" t="s">
-        <v>244</v>
+      <c r="B90" s="3">
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N90" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>83</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="N91" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>84</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="1"/>
       <c r="B92" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E92" t="s">
-        <v>301</v>
-      </c>
-      <c r="N92" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>127</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="N93" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>85</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1"/>
       <c r="B94" s="3" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" t="s">
+        <v>433</v>
+      </c>
+      <c r="F94" t="s">
+        <v>429</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1"/>
+      <c r="B95" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O95" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E97" t="s">
+        <v>298</v>
+      </c>
+      <c r="O97" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="O98" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="N94" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="1"/>
-      <c r="C95" s="2" t="s">
+      <c r="D100" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" t="s">
+        <v>426</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="O100" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1"/>
+      <c r="C101" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="N95" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="1"/>
-      <c r="C96" s="2" t="s">
+      <c r="D101" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O101" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1"/>
+      <c r="C102" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="N96" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="1"/>
-      <c r="C97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="N97" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="C98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="N98" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="1"/>
-      <c r="C99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="N99" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="1"/>
-      <c r="C100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="N100" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="1"/>
-      <c r="B101" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F101" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="N101" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="1"/>
-      <c r="B102" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="N102" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="D102" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="13.5" customHeight="1">
       <c r="A103" s="1"/>
       <c r="C103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="N103" s="12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>95</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O103" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1"/>
       <c r="C104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="N104" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>96</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="O104" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1"/>
       <c r="C105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="N105" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>97</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="O105" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1"/>
+      <c r="B106" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="C106" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="N106" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="O106" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1"/>
+      <c r="B107" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="C107" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="N107" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>99</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="O107" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1"/>
       <c r="C108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F108" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="N108" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="O108" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1"/>
       <c r="C109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="N109" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>101</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1"/>
       <c r="C110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="N110" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1"/>
       <c r="C111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>103</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="O111" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1"/>
       <c r="C112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F112" s="17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1"/>
       <c r="C113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="O113" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1"/>
       <c r="C114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="O114" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="3">
-        <v>0</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F115" s="18"/>
-      <c r="G115" s="20"/>
-    </row>
-    <row r="116" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="O115" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F116" s="18"/>
-      <c r="G116" s="20"/>
-    </row>
-    <row r="117" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1"/>
       <c r="C117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F117" s="18"/>
-      <c r="G117" s="20"/>
-    </row>
-    <row r="118" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G117" s="52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F118" s="18"/>
-      <c r="G118" s="20"/>
-    </row>
-    <row r="119" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G118" s="53" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1"/>
       <c r="C119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>111</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1"/>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
       <c r="C120" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G120" s="16"/>
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="3">
-        <v>87</v>
+      <c r="B121" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="H121" s="18"/>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1"/>
       <c r="C122" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="1"/>
+      <c r="B123" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="C123" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G123" s="16"/>
+      <c r="H123" s="18"/>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1"/>
       <c r="C124" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F124" s="18"/>
-      <c r="G124" s="20"/>
-    </row>
-    <row r="125" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="1"/>
       <c r="C125" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G125" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="3" t="s">
-        <v>304</v>
+      <c r="B126" s="3">
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F126" s="18"/>
-      <c r="G126" s="20"/>
-    </row>
-    <row r="127" spans="1:7">
+        <v>246</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G126" s="53" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="1"/>
       <c r="C127" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>118</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="1"/>
       <c r="C128" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F128" s="18"/>
-      <c r="G128" s="20"/>
-    </row>
-    <row r="129" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1"/>
       <c r="B129" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G129" s="16"/>
+      <c r="H129" s="18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1"/>
+      <c r="C130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G130" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1"/>
+      <c r="B131" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="H131" s="18"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1"/>
+      <c r="C132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1"/>
+      <c r="B133" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G133" s="16"/>
+      <c r="H133" s="18"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1"/>
+      <c r="B134" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1"/>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G135" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="C136" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="C137" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="C138" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="C139" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="C140" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="C141" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="C142" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="C143" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="C144" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4">
+      <c r="C161" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4">
+      <c r="C162" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="C165" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4">
+      <c r="C166" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="C167" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4">
+      <c r="C170" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4">
+      <c r="C173" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4">
+      <c r="C174" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4">
+      <c r="C175" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4">
+      <c r="C176" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4">
+      <c r="C177" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4">
+      <c r="C178" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4">
+      <c r="C179" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4">
+      <c r="C180" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4">
+      <c r="C181" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4">
+      <c r="C182" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4">
+      <c r="C183" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4">
+      <c r="C184" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4">
+      <c r="C185" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4">
+      <c r="C186" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4">
+      <c r="C187" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4">
+      <c r="C188" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4">
+      <c r="C191" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="C195" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="C197" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="C198" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="C201" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
-      <c r="B130" s="3">
-        <v>0</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="C134" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="B137" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="C138" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D138" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="C140" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="C141" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="C144" s="2" t="s">
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="B145" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C145" s="2" t="s">
+      <c r="D204" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="146" spans="2:4">
-      <c r="B146" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4">
-      <c r="B147" s="3" t="s">
+      <c r="C205" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="C209"/>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" s="3" t="s">
+      <c r="C211" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="C152"/>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="B154" s="3" t="s">
+      <c r="C214" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="C215" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4">
-      <c r="B157" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C157" s="2" t="s">
+      <c r="D215" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" ht="27">
+      <c r="C217" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4">
-      <c r="C158" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" ht="27">
-      <c r="C160" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C160" r:id="rId1"/>
-    <hyperlink ref="N1" r:id="rId2"/>
+    <hyperlink ref="C217" r:id="rId1"/>
+    <hyperlink ref="O1" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
+    <hyperlink ref="F1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/FYI/Table_of_all_scan_codes.xlsx
+++ b/FYI/Table_of_all_scan_codes.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D195" authorId="0">
+    <comment ref="D205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="588">
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/API/KeyboardEvent/code</t>
   </si>
@@ -815,9 +814,6 @@
     <t>6B</t>
   </si>
   <si>
-    <t>0D</t>
-  </si>
-  <si>
     <t>SC11C</t>
   </si>
   <si>
@@ -1010,9 +1006,6 @@
     <t>EB</t>
   </si>
   <si>
-    <t>{NumpadEnter}</t>
-  </si>
-  <si>
     <t>SC0E8</t>
   </si>
   <si>
@@ -1343,9 +1336,6 @@
     <t>free? - this WAS right CTRL</t>
   </si>
   <si>
-    <t>1d,0,1 is left… 1d,0,2 is right……</t>
-  </si>
-  <si>
     <t>keyboard Lang 3</t>
   </si>
   <si>
@@ -1625,9 +1615,6 @@
     <t>https://jacksautohotkeyblog.wordpress.com/2016/04/14/understanding-autohotkey-keyboard-scan-codes-and-virtual-key-codes-beginning-hotkeys-part-12/</t>
   </si>
   <si>
-    <t>Ignore all this, I don't remember where it came from</t>
-  </si>
-  <si>
     <t>Jelly comb numpad (not anymore)</t>
   </si>
   <si>
@@ -1652,9 +1639,6 @@
     <t>extra keyboard via Intercept.exe:  rightWin (AZIO keyboard)</t>
   </si>
   <si>
-    <t>extra keyboard via Intercept.exe: rightCtrl (Azio keyboard)</t>
-  </si>
-  <si>
     <t>Back</t>
   </si>
   <si>
@@ -1680,6 +1664,207 @@
   </si>
   <si>
     <t>In my experiments, I've had difficulty getting AHK to recognise scan codes 080 and higher…</t>
+  </si>
+  <si>
+    <t>SC110</t>
+  </si>
+  <si>
+    <t>SC119</t>
+  </si>
+  <si>
+    <t>SC124</t>
+  </si>
+  <si>
+    <t>SC122</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>SC06B ?</t>
+  </si>
+  <si>
+    <t>SC021 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media_Prev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media_Next    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media_Stop   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume_Mute    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume_Down    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume_Up   </t>
+  </si>
+  <si>
+    <t>//////</t>
+  </si>
+  <si>
+    <t>SC155</t>
+  </si>
+  <si>
+    <t>SC156</t>
+  </si>
+  <si>
+    <t>SC157</t>
+  </si>
+  <si>
+    <t>SC158</t>
+  </si>
+  <si>
+    <t>SC159</t>
+  </si>
+  <si>
+    <t>SC111</t>
+  </si>
+  <si>
+    <t>SC112</t>
+  </si>
+  <si>
+    <t>SC113</t>
+  </si>
+  <si>
+    <t>SC114</t>
+  </si>
+  <si>
+    <t>SC115</t>
+  </si>
+  <si>
+    <t>SC116</t>
+  </si>
+  <si>
+    <t>SC117</t>
+  </si>
+  <si>
+    <t>SC118</t>
+  </si>
+  <si>
+    <t>SC11A</t>
+  </si>
+  <si>
+    <t>SC11B</t>
+  </si>
+  <si>
+    <t>SC11E</t>
+  </si>
+  <si>
+    <t>SC11F</t>
+  </si>
+  <si>
+    <t>SC120</t>
+  </si>
+  <si>
+    <t>SC121</t>
+  </si>
+  <si>
+    <t>SC123</t>
+  </si>
+  <si>
+    <t>SC125</t>
+  </si>
+  <si>
+    <t>SC126</t>
+  </si>
+  <si>
+    <t>SC127</t>
+  </si>
+  <si>
+    <t>SC128</t>
+  </si>
+  <si>
+    <t>SC129</t>
+  </si>
+  <si>
+    <t>SC12A</t>
+  </si>
+  <si>
+    <t>SC12B</t>
+  </si>
+  <si>
+    <t>SC12C</t>
+  </si>
+  <si>
+    <t>SC12D</t>
+  </si>
+  <si>
+    <t>SC12E</t>
+  </si>
+  <si>
+    <t>SC12F</t>
+  </si>
+  <si>
+    <t>SC130</t>
+  </si>
+  <si>
+    <t>SC131</t>
+  </si>
+  <si>
+    <t>SC134</t>
+  </si>
+  <si>
+    <t>/////</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>???? Not sure if this is right…</t>
+  </si>
+  <si>
+    <t>SC137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Down    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Up   </t>
+  </si>
+  <si>
+    <t>Previous Track</t>
+  </si>
+  <si>
+    <t>Next track</t>
+  </si>
+  <si>
+    <t>Mute</t>
+  </si>
+  <si>
+    <t>Play/Pause</t>
+  </si>
+  <si>
+    <t>Media Stop</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Right Ctrl</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Left Ctrl</t>
+  </si>
+  <si>
+    <t>TERRIBLE IDEA, MUST FIX: extra keyboard via Intercept.exe: rightCtrl (Azio keyboard)</t>
+  </si>
+  <si>
+    <t>in intercept.exe:  1d,0,1 is left -- 1d,0,2 is right</t>
+  </si>
+  <si>
+    <t>Ignore all this, I don't remember where it came from or if it is even accurate, they seem to be wrong by 100.</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +2174,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2088,6 +2273,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -2391,11 +2577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O217"/>
+  <dimension ref="A1:O256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2422,79 +2608,79 @@
       <c r="C1" s="36"/>
       <c r="D1" s="37"/>
       <c r="F1" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
       <c r="O1" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="42"/>
       <c r="B2" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>405</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>407</v>
       </c>
       <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" s="25" customFormat="1">
       <c r="B3" s="30" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H3" s="28"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1">
       <c r="B4" s="31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>439</v>
-      </c>
       <c r="G4" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H4" s="28"/>
       <c r="O4" s="29"/>
@@ -2517,23 +2703,23 @@
         <v>128</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
@@ -2541,16 +2727,16 @@
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -2599,9 +2785,6 @@
       <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
@@ -2620,6 +2803,9 @@
       <c r="D15" s="6">
         <v>5</v>
       </c>
+      <c r="O15" s="11" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
@@ -2639,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2651,7 +2837,7 @@
         <v>8</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2663,7 +2849,7 @@
         <v>9</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2675,10 +2861,10 @@
         <v>178</v>
       </c>
       <c r="I20" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2690,10 +2876,10 @@
         <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2705,14 +2891,14 @@
         <v>130</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K22" s="48"/>
       <c r="O22" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2724,16 +2910,16 @@
         <v>131</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J23" s="48" t="s">
         <v>106</v>
       </c>
       <c r="K23" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2745,16 +2931,16 @@
         <v>181</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J24" s="48" t="s">
         <v>105</v>
       </c>
       <c r="K24" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2766,16 +2952,16 @@
         <v>180</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J25" s="48" t="s">
         <v>103</v>
       </c>
       <c r="K25" s="49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2787,16 +2973,16 @@
         <v>182</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J26" s="48" t="s">
         <v>104</v>
       </c>
       <c r="K26" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2808,16 +2994,16 @@
         <v>183</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J27" s="48" t="s">
         <v>101</v>
       </c>
       <c r="K27" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2829,16 +3015,16 @@
         <v>185</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J28" s="48" t="s">
         <v>102</v>
       </c>
       <c r="K28" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2850,16 +3036,16 @@
         <v>184</v>
       </c>
       <c r="I29" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J29" s="48" t="s">
         <v>51</v>
       </c>
       <c r="K29" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2871,16 +3057,16 @@
         <v>186</v>
       </c>
       <c r="I30" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J30" s="48" t="s">
         <v>33</v>
       </c>
       <c r="K30" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2892,16 +3078,16 @@
         <v>187</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J31" s="48" t="s">
         <v>47</v>
       </c>
       <c r="K31" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2916,7 +3102,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="O32" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2932,16 +3118,16 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="I33" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J33" s="50" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2953,16 +3139,16 @@
         <v>190</v>
       </c>
       <c r="I34" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J34" s="48" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2974,16 +3160,16 @@
         <v>191</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J35" s="48" t="s">
         <v>37</v>
       </c>
       <c r="K35" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2994,36 +3180,46 @@
       <c r="D36" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="I36" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="K36" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>583</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" t="s">
-        <v>413</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>516</v>
+        <v>586</v>
+      </c>
+      <c r="F37" t="s">
+        <v>584</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>585</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="48"/>
       <c r="K37" s="49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3037,10 +3233,10 @@
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3055,7 +3251,7 @@
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
       <c r="O39" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3067,16 +3263,16 @@
         <v>216</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>107</v>
+        <v>526</v>
       </c>
       <c r="K40" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3091,16 +3287,16 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="I41" s="50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J41" s="50" t="s">
-        <v>34</v>
+        <v>527</v>
       </c>
       <c r="K41" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3115,7 +3311,7 @@
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
       <c r="O42" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3130,7 +3326,7 @@
       <c r="J43" s="48"/>
       <c r="K43" s="48"/>
       <c r="O43" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3145,7 +3341,7 @@
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
       <c r="O44" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3160,7 +3356,7 @@
       <c r="J45" s="48"/>
       <c r="K45" s="48"/>
       <c r="O45" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3175,7 +3371,7 @@
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
       <c r="O46" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3190,7 +3386,7 @@
       <c r="J47" s="48"/>
       <c r="K47" s="48"/>
       <c r="O47" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3205,7 +3401,7 @@
       <c r="J48" s="48"/>
       <c r="K48" s="48"/>
       <c r="O48" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3220,7 +3416,7 @@
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
       <c r="O49" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3235,13 +3431,13 @@
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
       <c r="O50" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>44</v>
@@ -3250,13 +3446,13 @@
         <v>197</v>
       </c>
       <c r="F51" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I51" s="48"/>
       <c r="J51" s="48"/>
       <c r="K51" s="48"/>
       <c r="O51" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3271,7 +3467,7 @@
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
       <c r="O52" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3286,7 +3482,7 @@
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
       <c r="O53" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3301,7 +3497,7 @@
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="O54" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3316,7 +3512,7 @@
       <c r="J55" s="48"/>
       <c r="K55" s="48"/>
       <c r="O55" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3328,16 +3524,16 @@
         <v>201</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J56" s="48" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3349,7 +3545,7 @@
         <v>202</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3361,7 +3557,7 @@
         <v>203</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3373,7 +3569,7 @@
         <v>204</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3385,7 +3581,7 @@
         <v>205</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3397,7 +3593,7 @@
         <v>206</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3409,7 +3605,7 @@
         <v>195</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3421,7 +3617,7 @@
         <v>234</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3433,7 +3629,7 @@
         <v>220</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3445,7 +3641,7 @@
         <v>221</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3457,7 +3653,7 @@
         <v>222</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3469,7 +3665,7 @@
         <v>133</v>
       </c>
       <c r="O67" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3481,7 +3677,7 @@
         <v>134</v>
       </c>
       <c r="O68" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3493,7 +3689,7 @@
         <v>135</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3505,7 +3701,7 @@
         <v>136</v>
       </c>
       <c r="O70" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3517,7 +3713,7 @@
         <v>137</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3529,7 +3725,7 @@
         <v>138</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3541,7 +3737,7 @@
         <v>139</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3553,7 +3749,7 @@
         <v>140</v>
       </c>
       <c r="O74" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3565,7 +3761,7 @@
         <v>141</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3577,7 +3773,7 @@
         <v>142</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3592,7 +3788,7 @@
         <v>223</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -3604,7 +3800,7 @@
         <v>144</v>
       </c>
       <c r="O78" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -3619,7 +3815,7 @@
         <v>145</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -3634,7 +3830,7 @@
         <v>146</v>
       </c>
       <c r="O80" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -3649,13 +3845,13 @@
         <v>147</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
       <c r="B82" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>75</v>
@@ -3664,7 +3860,7 @@
         <v>235</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -3679,7 +3875,7 @@
         <v>148</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -3694,7 +3890,7 @@
         <v>149</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -3709,7 +3905,7 @@
         <v>150</v>
       </c>
       <c r="O85" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -3724,7 +3920,7 @@
         <v>151</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -3739,7 +3935,7 @@
         <v>152</v>
       </c>
       <c r="O87" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -3754,7 +3950,7 @@
         <v>153</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -3769,7 +3965,7 @@
         <v>154</v>
       </c>
       <c r="O89" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -3784,31 +3980,31 @@
         <v>155</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
       <c r="B92" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>127</v>
@@ -3817,7 +4013,7 @@
         <v>156</v>
       </c>
       <c r="O92" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -3829,13 +4025,13 @@
         <v>128</v>
       </c>
       <c r="O93" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
       <c r="B94" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>86</v>
@@ -3844,19 +4040,19 @@
         <v>197</v>
       </c>
       <c r="E94" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F94" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
       <c r="B95" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>87</v>
@@ -3865,13 +4061,13 @@
         <v>157</v>
       </c>
       <c r="O95" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
       <c r="B96" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>88</v>
@@ -3880,31 +4076,31 @@
         <v>158</v>
       </c>
       <c r="O96" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
       <c r="B97" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O97" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
       <c r="B98" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>90</v>
@@ -3913,10 +4109,10 @@
         <v>128</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -3931,13 +4127,13 @@
         <v>128</v>
       </c>
       <c r="O99" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
       <c r="B100" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>92</v>
@@ -3946,13 +4142,13 @@
         <v>128</v>
       </c>
       <c r="F100" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="O100" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -3964,7 +4160,7 @@
         <v>128</v>
       </c>
       <c r="O101" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -3976,7 +4172,7 @@
         <v>128</v>
       </c>
       <c r="O102" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="13.5" customHeight="1">
@@ -3988,7 +4184,7 @@
         <v>128</v>
       </c>
       <c r="O103" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -4000,10 +4196,10 @@
         <v>128</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -4015,16 +4211,16 @@
         <v>128</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O105" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
       <c r="B106" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>98</v>
@@ -4033,28 +4229,28 @@
         <v>128</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O106" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
       <c r="B107" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="O107" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -4066,10 +4262,10 @@
         <v>159</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O108" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -4081,10 +4277,10 @@
         <v>160</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O109" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -4096,10 +4292,10 @@
         <v>161</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O110" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -4111,10 +4307,10 @@
         <v>162</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O111" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -4126,10 +4322,10 @@
         <v>163</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O112" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -4141,10 +4337,10 @@
         <v>164</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -4156,10 +4352,10 @@
         <v>165</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -4171,10 +4367,10 @@
         <v>166</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O115" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -4195,7 +4391,7 @@
         <v>168</v>
       </c>
       <c r="G117" s="52" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -4207,7 +4403,7 @@
         <v>169</v>
       </c>
       <c r="G118" s="53" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -4219,7 +4415,7 @@
         <v>128</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -4237,7 +4433,7 @@
         <v>170</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G120" s="16"/>
       <c r="H120" s="18"/>
@@ -4245,7 +4441,7 @@
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
       <c r="B121" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>113</v>
@@ -4257,10 +4453,10 @@
         <v>171</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H121" s="18"/>
     </row>
@@ -4276,17 +4472,17 @@
         <v>172</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H122" s="18"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
       <c r="B123" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>115</v>
@@ -4298,7 +4494,7 @@
         <v>173</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G123" s="16"/>
       <c r="H123" s="18"/>
@@ -4312,7 +4508,7 @@
         <v>128</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -4324,7 +4520,7 @@
         <v>128</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -4333,16 +4529,16 @@
         <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>174</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G126" s="53" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -4354,10 +4550,10 @@
         <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -4369,16 +4565,16 @@
         <v>128</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1"/>
       <c r="B129" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>120</v>
@@ -4390,11 +4586,11 @@
         <v>175</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G129" s="16"/>
       <c r="H129" s="18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4406,13 +4602,13 @@
         <v>128</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1"/>
       <c r="B131" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>122</v>
@@ -4424,10 +4620,10 @@
         <v>176</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H131" s="18"/>
     </row>
@@ -4440,13 +4636,13 @@
         <v>128</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1"/>
       <c r="B133" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>124</v>
@@ -4458,7 +4654,7 @@
         <v>177</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G133" s="16"/>
       <c r="H133" s="18"/>
@@ -4466,7 +4662,7 @@
     <row r="134" spans="1:8">
       <c r="A134" s="1"/>
       <c r="B134" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>125</v>
@@ -4475,7 +4671,7 @@
         <v>128</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4490,399 +4686,685 @@
         <v>128</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="C136" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="C137" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="C138" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="C139" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="C140" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="C141" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="C142" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="C143" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="C144" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="3:3">
       <c r="C156" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="3:3">
       <c r="C157" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" spans="3:4">
       <c r="C161" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="3:4">
       <c r="C163" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="164" spans="3:4">
       <c r="C164" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="3:4">
       <c r="C165" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="3:4">
       <c r="C166" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="3:4">
       <c r="C167" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="170" spans="3:4">
       <c r="C170" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="3:4">
       <c r="C173" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="3:4">
       <c r="C174" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="3:4">
       <c r="C175" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="3:4">
       <c r="C176" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="C177" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="C178" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="C179" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="C180" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="C181" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="C182" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="177" spans="3:4">
-      <c r="C177" s="2" t="s">
+    <row r="183" spans="2:6">
+      <c r="C183" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="178" spans="3:4">
-      <c r="C178" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="179" spans="3:4">
-      <c r="C179" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="180" spans="3:4">
-      <c r="C180" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="181" spans="3:4">
-      <c r="C181" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="182" spans="3:4">
-      <c r="C182" s="2" t="s">
+    <row r="184" spans="2:6">
+      <c r="C184" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="C185" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="183" spans="3:4">
-      <c r="C183" s="2" t="s">
+    <row r="186" spans="2:6">
+      <c r="C186" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="184" spans="3:4">
-      <c r="C184" s="2" t="s">
+    <row r="187" spans="2:6">
+      <c r="C187" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="185" spans="3:4">
-      <c r="C185" s="2" t="s">
+    <row r="188" spans="2:6">
+      <c r="C188" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="186" spans="3:4">
-      <c r="C186" s="2" t="s">
+    <row r="190" spans="2:6">
+      <c r="C190" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="187" spans="3:4">
-      <c r="C187" s="2" t="s">
+      <c r="D190" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="188" spans="3:4">
-      <c r="C188" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="191" spans="3:4">
-      <c r="C191" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>502</v>
+    <row r="192" spans="2:6">
+      <c r="B192" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D192" t="s">
+        <v>528</v>
+      </c>
+      <c r="F192" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="C193" s="54" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="3" t="s">
+      <c r="C194" s="54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="C195" s="54" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="C196" s="54" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="C197" s="54" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="C198" s="54" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="C199" s="54" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="C200" s="54" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D201" t="s">
+        <v>529</v>
+      </c>
+      <c r="F201" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="C202" s="54" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="C203" s="54" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="C204" s="54" t="s">
         <v>237</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7">
-      <c r="C195" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D195" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7">
-      <c r="C197" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7">
-      <c r="C198" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
-      <c r="C201" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7">
-      <c r="B202" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7">
-      <c r="B203" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7">
-      <c r="B204" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F205" t="s">
+        <v>582</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="C206" s="54" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="C207" s="54" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D208" t="s">
+        <v>531</v>
+      </c>
+      <c r="F208" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="C209" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="D209"/>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D210" t="s">
+        <v>269</v>
+      </c>
+      <c r="F210" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="C211" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D212" t="s">
+        <v>530</v>
+      </c>
+      <c r="F212" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="C213" s="54" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="C214" s="54" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="C215" s="54" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6">
+      <c r="C216" s="54" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="C217" s="54" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="C218" s="54" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="C219" s="54" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="C220" s="54" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="C221" s="54" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D222" t="s">
+        <v>532</v>
+      </c>
+      <c r="F222" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="C223" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="D223"/>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D224" t="s">
+        <v>533</v>
+      </c>
+      <c r="F224" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8">
+      <c r="C225" s="54" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8">
+      <c r="B226" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8">
+      <c r="C227" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8">
+      <c r="C228" s="54" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8">
+      <c r="C229" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G229" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="H229" s="17" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8">
+      <c r="C230" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="H230" s="17" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8">
+      <c r="C231" s="54" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8">
+      <c r="C233" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8">
+      <c r="C235" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8">
+      <c r="C236" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8">
+      <c r="C237" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8">
+      <c r="C238" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8">
+      <c r="C239" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8">
+      <c r="C240" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4">
+      <c r="B241" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4">
+      <c r="B242" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4">
+      <c r="B243" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4">
+      <c r="B244" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4">
+      <c r="C247" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="C248"/>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="C209"/>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C211" s="2" t="s">
+      <c r="C250" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" ht="27">
+      <c r="C256" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="C215" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" ht="27">
-      <c r="C217" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C217" r:id="rId1"/>
+    <hyperlink ref="C256" r:id="rId1"/>
     <hyperlink ref="O1" r:id="rId2"/>
     <hyperlink ref="A1" r:id="rId3"/>
     <hyperlink ref="F1" r:id="rId4"/>

--- a/FYI/Table_of_all_scan_codes.xlsx
+++ b/FYI/Table_of_all_scan_codes.xlsx
@@ -46,6 +46,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TaranVanHemert:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Note ‡ Keys are used for Far East keyboards.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F126" authorId="0">
       <text>
         <r>
@@ -72,7 +96,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="D205" authorId="0">
+    <comment ref="G127" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TaranVanHemert:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Note ‡ Keys are used for Far East keyboards.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TaranVanHemert:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Note *** Keys 56 and 107 are used on Brazilian and some Far East keyboards. They not available on US Keyboards.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="549">
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/API/KeyboardEvent/code</t>
   </si>
@@ -556,9 +628,6 @@
     <t>Numpad6</t>
   </si>
   <si>
-    <t>NumpadAdd</t>
-  </si>
-  <si>
     <t>Numpad1</t>
   </si>
   <si>
@@ -1009,318 +1078,12 @@
     <t>SC0E8</t>
   </si>
   <si>
-    <t>https://stackoverflow.com/questions/1542350/what-are-the-scan-codes-for</t>
-  </si>
-  <si>
-    <t>Key Pressed     Javascript Key Code</t>
-  </si>
-  <si>
-    <t>backspace   8</t>
-  </si>
-  <si>
-    <t>tab     9</t>
-  </si>
-  <si>
-    <t>enter   13</t>
-  </si>
-  <si>
-    <t>shift   16</t>
-  </si>
-  <si>
-    <t>ctrl    17</t>
-  </si>
-  <si>
-    <t>alt     18</t>
-  </si>
-  <si>
-    <t>pause/break     19</t>
-  </si>
-  <si>
-    <t>caps lock   20</t>
-  </si>
-  <si>
-    <t>escape  27</t>
-  </si>
-  <si>
-    <t>page up     33</t>
-  </si>
-  <si>
-    <t>page down   34</t>
-  </si>
-  <si>
-    <t>end     35</t>
-  </si>
-  <si>
-    <t>home    36</t>
-  </si>
-  <si>
-    <t>left arrow  37</t>
-  </si>
-  <si>
-    <t>up arrow    38</t>
-  </si>
-  <si>
-    <t>right arrow     39</t>
-  </si>
-  <si>
-    <t>down arrow  40</t>
-  </si>
-  <si>
-    <t>insert  45</t>
-  </si>
-  <si>
-    <t>delete  46</t>
-  </si>
-  <si>
-    <t>0   48</t>
-  </si>
-  <si>
-    <t>1   49</t>
-  </si>
-  <si>
-    <t>2   50</t>
-  </si>
-  <si>
-    <t>3   51</t>
-  </si>
-  <si>
-    <t>4   52</t>
-  </si>
-  <si>
-    <t>5   53</t>
-  </si>
-  <si>
-    <t>6   54</t>
-  </si>
-  <si>
-    <t>7   55</t>
-  </si>
-  <si>
-    <t>8   56</t>
-  </si>
-  <si>
-    <t>9   57</t>
-  </si>
-  <si>
-    <t>a   65</t>
-  </si>
-  <si>
-    <t>b   66</t>
-  </si>
-  <si>
-    <t>c   67</t>
-  </si>
-  <si>
-    <t>d   68</t>
-  </si>
-  <si>
-    <t>e   69</t>
-  </si>
-  <si>
-    <t>f   70</t>
-  </si>
-  <si>
-    <t>g   71</t>
-  </si>
-  <si>
-    <t>h   72</t>
-  </si>
-  <si>
-    <t>i   73</t>
-  </si>
-  <si>
-    <t>j   74</t>
-  </si>
-  <si>
-    <t>k   75</t>
-  </si>
-  <si>
-    <t>l   76</t>
-  </si>
-  <si>
-    <t>m   77</t>
-  </si>
-  <si>
-    <t>n   78</t>
-  </si>
-  <si>
-    <t>o   79</t>
-  </si>
-  <si>
-    <t>p   80</t>
-  </si>
-  <si>
-    <t>q   81</t>
-  </si>
-  <si>
-    <t>r   82</t>
-  </si>
-  <si>
-    <t>s   83</t>
-  </si>
-  <si>
-    <t>t   84</t>
-  </si>
-  <si>
-    <t>u   85</t>
-  </si>
-  <si>
-    <t>v   86</t>
-  </si>
-  <si>
-    <t>w   87</t>
-  </si>
-  <si>
-    <t>x   88</t>
-  </si>
-  <si>
-    <t>y   89</t>
-  </si>
-  <si>
-    <t>z   90</t>
-  </si>
-  <si>
-    <t>left window key     91</t>
-  </si>
-  <si>
-    <t>right window key    92</t>
-  </si>
-  <si>
-    <t>select key  93</t>
-  </si>
-  <si>
-    <t>numpad 0    96</t>
-  </si>
-  <si>
-    <t>numpad 1    97</t>
-  </si>
-  <si>
-    <t>numpad 2    98</t>
-  </si>
-  <si>
-    <t>numpad 3    99</t>
-  </si>
-  <si>
-    <t>numpad 4    100</t>
-  </si>
-  <si>
-    <t>numpad 5    101</t>
-  </si>
-  <si>
-    <t>numpad 6    102</t>
-  </si>
-  <si>
-    <t>numpad 7    103</t>
-  </si>
-  <si>
-    <t>numpad 8    104</t>
-  </si>
-  <si>
-    <t>numpad 9    105</t>
-  </si>
-  <si>
-    <t>multiply    106</t>
-  </si>
-  <si>
-    <t>add     107</t>
-  </si>
-  <si>
-    <t>subtract    109</t>
-  </si>
-  <si>
-    <t>decimal point   110</t>
-  </si>
-  <si>
-    <t>divide  111</t>
-  </si>
-  <si>
-    <t>f1  112</t>
-  </si>
-  <si>
-    <t>f2  113</t>
-  </si>
-  <si>
-    <t>f3  114</t>
-  </si>
-  <si>
-    <t>f4  115</t>
-  </si>
-  <si>
-    <t>f5  116</t>
-  </si>
-  <si>
-    <t>f6  117</t>
-  </si>
-  <si>
-    <t>f7  118</t>
-  </si>
-  <si>
-    <t>f8  119</t>
-  </si>
-  <si>
-    <t>f9  120</t>
-  </si>
-  <si>
-    <t>f10     121</t>
-  </si>
-  <si>
-    <t>f11     122</t>
-  </si>
-  <si>
-    <t>f12     123</t>
-  </si>
-  <si>
-    <t>num lock    144</t>
-  </si>
-  <si>
-    <t>scroll lock     145</t>
-  </si>
-  <si>
-    <t>semi-colon  186</t>
-  </si>
-  <si>
-    <t>equal sign  187</t>
-  </si>
-  <si>
-    <t>comma   188</t>
-  </si>
-  <si>
-    <t>dash    189</t>
-  </si>
-  <si>
-    <t>period  190</t>
-  </si>
-  <si>
-    <t>forward slash   191</t>
-  </si>
-  <si>
-    <t>grave accent    192</t>
-  </si>
-  <si>
-    <t>open bracket    219</t>
-  </si>
-  <si>
-    <t>back slash  220</t>
-  </si>
-  <si>
-    <t>close braket    221</t>
-  </si>
-  <si>
-    <t>single quote    222</t>
-  </si>
-  <si>
-    <t>USELESS ACTUALLY. Not the same as AHK.</t>
-  </si>
-  <si>
     <t>AKA…</t>
   </si>
   <si>
     <t>MY USE</t>
   </si>
   <si>
-    <t>My name for it</t>
-  </si>
-  <si>
     <t>SCALE (PR) -- PREV COMMENT (Word)</t>
   </si>
   <si>
@@ -1345,9 +1108,6 @@
     <t>Keyboard Lang 4</t>
   </si>
   <si>
-    <t>Keyboard Lang 5</t>
-  </si>
-  <si>
     <t>Keyboard Lang 1</t>
   </si>
   <si>
@@ -1387,12 +1147,6 @@
     <t>Keypad , (Brazilian Keypad)</t>
   </si>
   <si>
-    <t>Does not work…</t>
-  </si>
-  <si>
-    <t>NumpadDot</t>
-  </si>
-  <si>
     <t>IntlBackslash</t>
   </si>
   <si>
@@ -1438,15 +1192,6 @@
     <t>blocked cause I kept hitting accidentally</t>
   </si>
   <si>
-    <t>F25</t>
-  </si>
-  <si>
-    <t>F26</t>
-  </si>
-  <si>
-    <t>F27</t>
-  </si>
-  <si>
     <t>SCO80</t>
   </si>
   <si>
@@ -1456,9 +1201,6 @@
     <t>SCO82</t>
   </si>
   <si>
-    <t>cannot find a Corsair trigger</t>
-  </si>
-  <si>
     <t>SCO83</t>
   </si>
   <si>
@@ -1621,9 +1363,6 @@
     <t>extra keyboard via Intercept.exe: left WIN</t>
   </si>
   <si>
-    <t>extra keyboard via Intercept.exe: left ALT</t>
-  </si>
-  <si>
     <t>extra keyboard via Intercept.exe: right SHIFT -OR- "email tab"</t>
   </si>
   <si>
@@ -1816,9 +1555,6 @@
     <t>????</t>
   </si>
   <si>
-    <t>??????</t>
-  </si>
-  <si>
     <t>???? Not sure if this is right…</t>
   </si>
   <si>
@@ -1861,17 +1597,247 @@
     <t>TERRIBLE IDEA, MUST FIX: extra keyboard via Intercept.exe: rightCtrl (Azio keyboard)</t>
   </si>
   <si>
-    <t>in intercept.exe:  1d,0,1 is left -- 1d,0,2 is right</t>
-  </si>
-  <si>
     <t>Ignore all this, I don't remember where it came from or if it is even accurate, they seem to be wrong by 100.</t>
+  </si>
+  <si>
+    <t>DBE_SBCSCHAR‡</t>
+  </si>
+  <si>
+    <t>DO NOT USE</t>
+  </si>
+  <si>
+    <t>DBE_KATAKANA‡</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>ACPI Power</t>
+  </si>
+  <si>
+    <t>ACPI Sleep</t>
+  </si>
+  <si>
+    <t>ACPI Wake</t>
+  </si>
+  <si>
+    <t>NONCONVERT‡</t>
+  </si>
+  <si>
+    <t>SCOAA</t>
+  </si>
+  <si>
+    <t>(LSHIFT make)</t>
+  </si>
+  <si>
+    <t>(RSHIFT make)</t>
+  </si>
+  <si>
+    <t>(LSHIFT break)</t>
+  </si>
+  <si>
+    <t>SCOB6</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RSHIFT break)</t>
+    </r>
+  </si>
+  <si>
+    <t>Don't use</t>
+  </si>
+  <si>
+    <t>Don't use!</t>
+  </si>
+  <si>
+    <t>Probably don't use</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>{NumpadAdd}</t>
+  </si>
+  <si>
+    <t>{NumpadDot}</t>
+  </si>
+  <si>
+    <t>Dangerous…</t>
+  </si>
+  <si>
+    <t>SC145</t>
+  </si>
+  <si>
+    <t>Numlock</t>
+  </si>
+  <si>
+    <t>Dangerous!!</t>
+  </si>
+  <si>
+    <t>SC138</t>
+  </si>
+  <si>
+    <t>SC139</t>
+  </si>
+  <si>
+    <t>SC140</t>
+  </si>
+  <si>
+    <t>SC141</t>
+  </si>
+  <si>
+    <t>SC142</t>
+  </si>
+  <si>
+    <t>SC143</t>
+  </si>
+  <si>
+    <t>SC144</t>
+  </si>
+  <si>
+    <t>SC13A</t>
+  </si>
+  <si>
+    <t>SC13B</t>
+  </si>
+  <si>
+    <t>SC13C</t>
+  </si>
+  <si>
+    <t>SC13D</t>
+  </si>
+  <si>
+    <t>SC13E</t>
+  </si>
+  <si>
+    <t>SC13F</t>
+  </si>
+  <si>
+    <t>DO NOT USE, this might be a trigger for all keys??</t>
+  </si>
+  <si>
+    <t>SC0D0</t>
+  </si>
+  <si>
+    <t>SC0D1</t>
+  </si>
+  <si>
+    <t>SC0D2</t>
+  </si>
+  <si>
+    <t>SC0D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Requested by system. </t>
+  </si>
+  <si>
+    <t>DO NOT USE JUST IN CASE</t>
+  </si>
+  <si>
+    <t>I have no idea, but might be super important.</t>
+  </si>
+  <si>
+    <t>SC15E</t>
+  </si>
+  <si>
+    <t>SC15F</t>
+  </si>
+  <si>
+    <t>IDK how I discovered the virtual key for this….</t>
+  </si>
+  <si>
+    <t>intercept.exe: 1d,0,1 is left -- 1d,0,2 is right</t>
+  </si>
+  <si>
+    <t>These have nothing to</t>
+  </si>
+  <si>
+    <t>do with the columns</t>
+  </si>
+  <si>
+    <t>to the left.</t>
+  </si>
+  <si>
+    <t>NEED TO CHANGE</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe: left ALT ----AND---- back(). Shouldn’t be both…</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>try as modifier from corsair</t>
+  </si>
+  <si>
+    <t>TRY see if dangerous</t>
+  </si>
+  <si>
+    <t>use as modifier? No corsair though</t>
+  </si>
+  <si>
+    <t>can use</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>try LAST as modifier from corsair OR as alternative to NUM LOCK</t>
+  </si>
+  <si>
+    <t>WORKS as modifier</t>
+  </si>
+  <si>
+    <t>Keyboard lang 6</t>
+  </si>
+  <si>
+    <t>Keyboard lang 7</t>
+  </si>
+  <si>
+    <t>Keyboard lang 8</t>
+  </si>
+  <si>
+    <t>Keyboard lang 9</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 7</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 8</t>
+  </si>
+  <si>
+    <t>Keyboard Intl' 9</t>
+  </si>
+  <si>
+    <t>[AHK couldn't detect the keystroke]</t>
+  </si>
+  <si>
+    <t>probably should not use this for anything</t>
+  </si>
+  <si>
+    <t>Info from scancode.doc</t>
+  </si>
+  <si>
+    <t>Keyboard Lang 5  /  F24 ???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2015,6 +1981,101 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2036,18 +2097,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2164,6 +2225,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2174,7 +2244,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2212,12 +2282,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2231,7 +2296,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2243,25 +2307,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2274,6 +2336,74 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -2577,171 +2707,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O256"/>
+  <dimension ref="A1:P288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6.90625" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="19.36328125" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1"/>
-    <col min="15" max="15" width="36.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="6" style="67" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="36.7265625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="38" customFormat="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" s="34" customFormat="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="O1" s="41" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="36"/>
+      <c r="P1" s="37"/>
+    </row>
+    <row r="2" spans="1:16" s="39" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="I2" s="80" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="43" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>405</v>
-      </c>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" s="25" customFormat="1">
-      <c r="B3" s="30" t="s">
-        <v>442</v>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:16" s="22" customFormat="1">
+      <c r="B3" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" s="25" customFormat="1">
-      <c r="B4" s="31" t="s">
-        <v>443</v>
+      <c r="D3" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" s="22" customFormat="1">
+      <c r="B4" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" s="25" customFormat="1">
+      <c r="D4" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" s="22" customFormat="1">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="D5" s="23"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="17"/>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="H6" s="65"/>
+      <c r="I6" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>434</v>
+      <c r="D7" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="F7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:15">
+        <v>332</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>435</v>
+      <c r="D8" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="F8" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:15">
+        <v>333</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -2749,8 +2888,10 @@
       <c r="D9" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="H9" s="66"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2758,8 +2899,10 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="H10" s="66"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -2767,8 +2910,10 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="H11" s="66"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -2776,8 +2921,10 @@
       <c r="D12" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="H12" s="66"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -2785,8 +2932,10 @@
       <c r="D13" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="H13" s="66"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -2794,8 +2943,10 @@
       <c r="D14" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="H14" s="66"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -2803,11 +2954,10 @@
       <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="O15" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="H15" s="66"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -2815,8 +2965,10 @@
       <c r="D16" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="H16" s="66"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -2824,11 +2976,10 @@
       <c r="D17" s="6">
         <v>7</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="H17" s="66"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -2836,11 +2987,10 @@
       <c r="D18" s="6">
         <v>8</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="H18" s="66"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -2848,41 +2998,38 @@
       <c r="D19" s="6">
         <v>9</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="H19" s="66"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" t="s">
-        <v>587</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>177</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" t="s">
-        <v>515</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>178</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -2890,222 +3037,211 @@
       <c r="D22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="J22" s="48" t="s">
+      <c r="H22" s="66"/>
+      <c r="I22"/>
+      <c r="J22" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="O22" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="K22" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="J23" s="48" t="s">
+      <c r="H23" s="66"/>
+      <c r="I23"/>
+      <c r="J23" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="K23" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="L23" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="66"/>
+      <c r="I24"/>
+      <c r="J24" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="L24" s="43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="J25" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="66"/>
+      <c r="I25"/>
+      <c r="J25" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="L25" s="43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="J26" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="66"/>
+      <c r="I26"/>
+      <c r="J26" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="L26" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="J27" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="66"/>
+      <c r="I27"/>
+      <c r="J27" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="K27" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="L27" s="43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="J28" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28"/>
+      <c r="J28" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="L28" s="43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J29" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29"/>
+      <c r="J29" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="L29" s="43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="J30" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="66"/>
+      <c r="I30"/>
+      <c r="J30" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="L30" s="43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="J31" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="66"/>
+      <c r="I31"/>
+      <c r="J31" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="L31" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="O32" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>187</v>
+      </c>
+      <c r="H32" s="66"/>
+      <c r="I32"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="B33" s="12">
         <v>50</v>
       </c>
@@ -3113,298 +3249,281 @@
         <v>26</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="I33" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="J33" s="50" t="s">
+      <c r="H33" s="66"/>
+      <c r="I33"/>
+      <c r="J33" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="L33" s="45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="J34" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="66"/>
+      <c r="I34"/>
+      <c r="J34" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="L34" s="43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="J35" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" s="66"/>
+      <c r="I35"/>
+      <c r="J35" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="K35" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="L35" s="43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="J36" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="66"/>
+      <c r="I36"/>
+      <c r="J36" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="K36" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="L36" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>583</v>
+        <v>471</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E37" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
       <c r="F37" t="s">
-        <v>584</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>472</v>
+      </c>
+      <c r="H37" s="66"/>
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="H38" s="66"/>
+      <c r="I38"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="58" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="O39" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>216</v>
+      </c>
+      <c r="H39" s="66"/>
+      <c r="I39"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="K40" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>215</v>
+      </c>
+      <c r="H40" s="66"/>
+      <c r="I40"/>
+      <c r="J40" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="L40" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="I41" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="J41" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="K41" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="H41" s="66"/>
+      <c r="I41"/>
+      <c r="J41" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="O42" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>213</v>
+      </c>
+      <c r="H42" s="66"/>
+      <c r="I42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="O43" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>212</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="O44" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>211</v>
+      </c>
+      <c r="H44" s="66"/>
+      <c r="I44"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="O45" s="11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>210</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="O46" s="11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="H46" s="66"/>
+      <c r="I46"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="O47" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>208</v>
+      </c>
+      <c r="H47" s="66"/>
+      <c r="I47"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="C48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="O48" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>207</v>
+      </c>
+      <c r="H48" s="66"/>
+      <c r="I48"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>42</v>
@@ -3412,251 +3531,239 @@
       <c r="D49" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="O49" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="H49" s="66"/>
+      <c r="I49"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="O50" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>206</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="H50" s="66"/>
+      <c r="I50"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>425</v>
-      </c>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="O51" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>321</v>
+      </c>
+      <c r="H51" s="66"/>
+      <c r="I51"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="C52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="O52" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>197</v>
+      </c>
+      <c r="H52" s="66"/>
+      <c r="I52"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="O53" s="11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>198</v>
+      </c>
+      <c r="H53" s="66"/>
+      <c r="I53"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="O54" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>195</v>
+      </c>
+      <c r="H54" s="66"/>
+      <c r="I54"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" thickBot="1">
       <c r="A55" s="1"/>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="O55" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>199</v>
+      </c>
+      <c r="H55" s="66"/>
+      <c r="I55"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1"/>
       <c r="C56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I56" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="J56" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H56" s="66"/>
+      <c r="I56"/>
+      <c r="J56" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K56" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="L56" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="C57" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>201</v>
+      </c>
+      <c r="H57" s="66"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>202</v>
+      </c>
+      <c r="H58" s="66"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="C59" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="O59" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>203</v>
+      </c>
+      <c r="H59" s="66"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="O60" s="11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>204</v>
+      </c>
+      <c r="H60" s="66"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="C61" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O61" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>205</v>
+      </c>
+      <c r="H61" s="66"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="C62" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>194</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="H62" s="66"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="C63" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>233</v>
+      </c>
+      <c r="H63" s="66"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="C64" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="O64" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>219</v>
+      </c>
+      <c r="H64" s="66"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="C65" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="O65" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="H65" s="66"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1"/>
       <c r="C66" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="O66" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>221</v>
+      </c>
+      <c r="H66" s="66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="C67" s="2" t="s">
         <v>60</v>
@@ -3664,11 +3771,10 @@
       <c r="D67" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="O67" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="H67" s="66"/>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="C68" s="2" t="s">
         <v>61</v>
@@ -3676,11 +3782,10 @@
       <c r="D68" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O68" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="H68" s="66"/>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="C69" s="2" t="s">
         <v>62</v>
@@ -3688,11 +3793,10 @@
       <c r="D69" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O69" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="H69" s="66"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1"/>
       <c r="C70" s="2" t="s">
         <v>63</v>
@@ -3700,23 +3804,21 @@
       <c r="D70" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="O70" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="H70" s="66"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" thickBot="1">
       <c r="A71" s="1"/>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O71" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="H71" s="66"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1"/>
       <c r="C72" s="2" t="s">
         <v>65</v>
@@ -3724,11 +3826,10 @@
       <c r="D72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="O72" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="H72" s="66"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="C73" s="2" t="s">
         <v>66</v>
@@ -3736,11 +3837,10 @@
       <c r="D73" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="O73" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="H73" s="66"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1"/>
       <c r="C74" s="2" t="s">
         <v>67</v>
@@ -3748,11 +3848,10 @@
       <c r="D74" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O74" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="H74" s="66"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="C75" s="2" t="s">
         <v>68</v>
@@ -3760,11 +3859,10 @@
       <c r="D75" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O75" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="H75" s="66"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1"/>
       <c r="C76" s="2" t="s">
         <v>69</v>
@@ -3772,11 +3870,10 @@
       <c r="D76" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O76" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="H76" s="66"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1"/>
       <c r="C77" s="2" t="s">
         <v>70</v>
@@ -3785,13 +3882,14 @@
         <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
-      </c>
-      <c r="O77" s="11" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>222</v>
+      </c>
+      <c r="H77" s="66"/>
+      <c r="I77" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="C78" s="2" t="s">
         <v>71</v>
@@ -3799,11 +3897,12 @@
       <c r="D78" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O78" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="H78" s="66"/>
+      <c r="I78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="3">
         <v>67</v>
@@ -3814,11 +3913,10 @@
       <c r="D79" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O79" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="H79" s="66"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="B80" s="3">
         <v>68</v>
@@ -3829,11 +3927,10 @@
       <c r="D80" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="O80" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="H80" s="66"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1"/>
       <c r="B81" s="3">
         <v>69</v>
@@ -3844,26 +3941,24 @@
       <c r="D81" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="O81" s="11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="H81" s="66"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1"/>
       <c r="B82" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="O82" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>234</v>
+      </c>
+      <c r="H82" s="66"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="3">
         <v>64</v>
@@ -3874,11 +3969,10 @@
       <c r="D83" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="O83" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="H83" s="66"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1"/>
       <c r="B84" s="3">
         <v>65</v>
@@ -3889,11 +3983,10 @@
       <c r="D84" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="O84" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="H84" s="66"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1"/>
       <c r="B85" s="3">
         <v>66</v>
@@ -3904,41 +3997,38 @@
       <c r="D85" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="O85" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="H85" s="66"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1"/>
       <c r="B86" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="O86" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>493</v>
+      </c>
+      <c r="H86" s="66"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" ht="15" thickBot="1">
       <c r="A87" s="1"/>
       <c r="B87" s="3">
         <v>61</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="58" t="s">
         <v>80</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>151</v>
+      </c>
+      <c r="H87" s="66"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1"/>
       <c r="B88" s="3">
         <v>62</v>
@@ -3947,13 +4037,12 @@
         <v>81</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O88" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>152</v>
+      </c>
+      <c r="H88" s="66"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1"/>
       <c r="B89" s="3">
         <v>63</v>
@@ -3962,13 +4051,12 @@
         <v>82</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="O89" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>153</v>
+      </c>
+      <c r="H89" s="66"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1"/>
       <c r="B90" s="3">
         <v>60</v>
@@ -3977,46 +4065,43 @@
         <v>83</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="O90" s="11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>154</v>
+      </c>
+      <c r="H90" s="66"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1"/>
       <c r="B91" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="O91" s="11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>494</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="H91" s="66"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1"/>
       <c r="B92" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="O92" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>155</v>
+      </c>
+      <c r="H92" s="66"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1"/>
       <c r="C93" s="2" t="s">
         <v>85</v>
@@ -4024,83 +4109,77 @@
       <c r="D93" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O93" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="H93" s="66"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1"/>
       <c r="B94" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E94" t="s">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="F94" t="s">
-        <v>426</v>
-      </c>
-      <c r="O94" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>322</v>
+      </c>
+      <c r="H94" s="66"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1"/>
       <c r="B95" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O95" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>156</v>
+      </c>
+      <c r="H95" s="66"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1"/>
       <c r="B96" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="O96" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>157</v>
+      </c>
+      <c r="H96" s="66"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1"/>
       <c r="B97" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>297</v>
-      </c>
-      <c r="O97" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>296</v>
+      </c>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1"/>
       <c r="B98" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>90</v>
@@ -4108,14 +4187,11 @@
       <c r="D98" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G98" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="O98" s="11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="I98" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1"/>
       <c r="B99" s="3" t="s">
         <v>133</v>
@@ -4126,14 +4202,14 @@
       <c r="D99" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O99" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="H99" s="67" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1"/>
       <c r="B100" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>92</v>
@@ -4141,17 +4217,17 @@
       <c r="D100" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F100" t="s">
-        <v>423</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="O100" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="F100" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="H100" s="69" t="s">
+        <v>536</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1"/>
       <c r="C101" s="2" t="s">
         <v>93</v>
@@ -4159,11 +4235,14 @@
       <c r="D101" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O101" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="G101" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1"/>
       <c r="C102" s="2" t="s">
         <v>94</v>
@@ -4171,23 +4250,29 @@
       <c r="D102" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O102" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="13.5" customHeight="1">
+      <c r="G102" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A103" s="1"/>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="58" t="s">
         <v>95</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O103" s="11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="G103" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1"/>
       <c r="C104" s="2" t="s">
         <v>96</v>
@@ -4195,14 +4280,14 @@
       <c r="D104" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G104" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="O104" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="G104" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1"/>
       <c r="C105" s="2" t="s">
         <v>97</v>
@@ -4210,17 +4295,17 @@
       <c r="D105" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G105" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="O105" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="G105" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1"/>
       <c r="B106" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>98</v>
@@ -4228,197 +4313,213 @@
       <c r="D106" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G106" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="O106" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="H106" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1"/>
       <c r="B107" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="O107" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>294</v>
+      </c>
+      <c r="G107" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1"/>
       <c r="C108" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="O108" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>158</v>
+      </c>
+      <c r="F108" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="H108" s="69">
+        <v>1</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1"/>
       <c r="C109" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="O109" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>159</v>
+      </c>
+      <c r="F109" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1"/>
       <c r="C110" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="O110" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>160</v>
+      </c>
+      <c r="F110" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1"/>
       <c r="C111" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="O111" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>161</v>
+      </c>
+      <c r="F111" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="H111" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1"/>
       <c r="C112" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="O112" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>162</v>
+      </c>
+      <c r="F112" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="C113" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="O113" s="11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>163</v>
+      </c>
+      <c r="F113" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1"/>
       <c r="C114" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="O114" s="11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>164</v>
+      </c>
+      <c r="F114" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="C115" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="O115" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>165</v>
+      </c>
+      <c r="F115" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1"/>
       <c r="C116" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="F116" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1"/>
       <c r="C117" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G117" s="52" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>167</v>
+      </c>
+      <c r="F117" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="I117" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1"/>
       <c r="C118" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G118" s="53" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>168</v>
+      </c>
+      <c r="F118" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="I118" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" s="1"/>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G119" s="32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="H119" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="I119" s="28"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1"/>
       <c r="B120" s="3">
         <v>0</v>
@@ -4429,60 +4530,67 @@
       <c r="D120" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="18"/>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="E120" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="G120" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="H120" s="69" t="s">
+        <v>537</v>
+      </c>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1"/>
       <c r="B121" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G121" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="H121" s="18"/>
-    </row>
-    <row r="122" spans="1:15">
+        <v>170</v>
+      </c>
+      <c r="F121" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="G121" s="52"/>
+      <c r="H121" s="70" t="s">
+        <v>530</v>
+      </c>
+      <c r="I121" s="20"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1"/>
       <c r="C122" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="G122" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="H122" s="18"/>
-    </row>
-    <row r="123" spans="1:15">
+        <v>171</v>
+      </c>
+      <c r="F122" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="G122" s="52"/>
+      <c r="H122" s="70" t="s">
+        <v>530</v>
+      </c>
+      <c r="I122" s="20"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1"/>
       <c r="B123" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>115</v>
@@ -4491,57 +4599,60 @@
         <v>128</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G123" s="16"/>
-      <c r="H123" s="18"/>
-    </row>
-    <row r="124" spans="1:15">
+        <v>172</v>
+      </c>
+      <c r="F123" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="G123" s="53"/>
+      <c r="H123" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1"/>
       <c r="C124" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G124" s="32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="I124" s="28"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1"/>
       <c r="C125" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G125" s="32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="I125" s="28"/>
+    </row>
+    <row r="126" spans="1:9" ht="28">
       <c r="A126" s="1"/>
       <c r="B126" s="3">
         <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G126" s="53" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>173</v>
+      </c>
+      <c r="F126" s="82" t="s">
+        <v>548</v>
+      </c>
+      <c r="G126" s="52"/>
+      <c r="H126" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="I126" s="47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1"/>
       <c r="C127" s="2" t="s">
         <v>118</v>
@@ -4549,14 +4660,17 @@
       <c r="D127" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H127" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="F127" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="G127" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="H127" s="69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1"/>
       <c r="C128" s="2" t="s">
         <v>119</v>
@@ -4564,17 +4678,18 @@
       <c r="D128" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H128" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="F128" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="G128" s="54"/>
+      <c r="H128" s="69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1"/>
       <c r="B129" s="3" t="s">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>120</v>
@@ -4583,66 +4698,72 @@
         <v>128</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="F129" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="G129" s="53"/>
+      <c r="H129" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1"/>
       <c r="C130" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D130" s="33" t="s">
+      <c r="D130" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G130" s="32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="G130" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="I130" s="28"/>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1"/>
       <c r="B131" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D131" s="33" t="s">
+      <c r="D131" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G131" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="H131" s="18"/>
-    </row>
-    <row r="132" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="F131" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="G131" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="H131" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="I131" s="28"/>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1"/>
       <c r="C132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="33" t="s">
+      <c r="D132" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G132" s="32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="G132" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="I132" s="28"/>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1"/>
       <c r="B133" s="3" t="s">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>124</v>
@@ -4651,18 +4772,23 @@
         <v>128</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="18"/>
-    </row>
-    <row r="134" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="F133" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="G133" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="H133" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="I133" s="16"/>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1"/>
       <c r="B134" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>125</v>
@@ -4671,703 +4797,999 @@
         <v>128</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>323</v>
+      </c>
+      <c r="G134" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="H134" s="69" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" thickBot="1">
       <c r="A135" s="1"/>
       <c r="B135" s="3">
         <v>0</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="D135" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="I135" s="28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1"/>
+      <c r="C136" s="71"/>
+      <c r="D136" s="29"/>
+      <c r="I136" s="28"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1"/>
+      <c r="C137" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F137" s="74" t="s">
+        <v>538</v>
+      </c>
+      <c r="I137" s="28"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1"/>
+      <c r="C138" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F138" s="74" t="s">
+        <v>539</v>
+      </c>
+      <c r="I138" s="28"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1"/>
+      <c r="C139" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F139" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="I139" s="28"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1"/>
+      <c r="C140" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F140" s="74" t="s">
+        <v>541</v>
+      </c>
+      <c r="I140" s="28"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1"/>
+      <c r="C141" s="71"/>
+      <c r="F141" s="2"/>
+      <c r="I141" s="28"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1"/>
+      <c r="C142" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F142" s="78" t="s">
+        <v>542</v>
+      </c>
+      <c r="I142" s="28"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1"/>
+      <c r="C143" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F143" s="78" t="s">
+        <v>543</v>
+      </c>
+      <c r="I143" s="28"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1"/>
+      <c r="C144" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F144" s="78" t="s">
+        <v>544</v>
+      </c>
+      <c r="I144" s="28"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="29"/>
+      <c r="I145" s="28"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="C146" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="C147" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="C148" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="C149" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="C150" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K150" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="C151" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="C152" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="C153" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="C154" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="C155" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="C156" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="C157" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="C158" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="C159" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="C160" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" ht="15" thickBot="1">
+      <c r="C161" s="58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9" ht="15" thickBot="1">
+      <c r="C177" s="58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9">
+      <c r="C179" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="3:9">
+      <c r="C181" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G181" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="I181" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="182" spans="3:9">
+      <c r="C182" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G182" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="I182" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="184" spans="3:9">
+      <c r="C184" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="185" spans="3:9" ht="15" thickBot="1">
+      <c r="C185" s="58"/>
+    </row>
+    <row r="186" spans="3:9">
+      <c r="C186" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G186" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="I186" s="18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="187" spans="3:9">
+      <c r="C187" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="188" spans="3:9">
+      <c r="C188" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="189" spans="3:9">
+      <c r="C189" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="3:9">
+      <c r="C190" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="3:9">
+      <c r="C191" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="3:9">
+      <c r="C192" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9">
+      <c r="C193" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9">
+      <c r="C194" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="195" spans="3:9">
+      <c r="C195" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="196" spans="3:9">
+      <c r="C196" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="3:9">
+      <c r="C197" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="3:9">
+      <c r="C198" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="3:9">
+      <c r="C199" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" spans="3:9">
+      <c r="C200" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="201" spans="3:9" ht="15" thickBot="1">
+      <c r="C201" s="58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="202" spans="3:9">
+      <c r="C202" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="G202" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="I202" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="203" spans="3:9">
+      <c r="C203" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="G203" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="204" spans="3:9">
+      <c r="C204" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="G204" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="205" spans="3:9">
+      <c r="C205" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="G205" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="207" spans="3:9">
+      <c r="C207" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9">
+      <c r="B209" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D209" t="s">
+        <v>417</v>
+      </c>
+      <c r="F209" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="C210" s="48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9">
+      <c r="C211" s="48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9">
+      <c r="C212" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="C213" s="48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9">
+      <c r="C214" s="48" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="C215" s="48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="C216" s="48" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
+      <c r="C217" s="48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9">
+      <c r="B218" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9">
+      <c r="C219" s="48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9">
+      <c r="C220" s="48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="C221" s="48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9">
+      <c r="B222" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F222" t="s">
+        <v>470</v>
+      </c>
+      <c r="I222" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9">
+      <c r="C223" s="48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" ht="15" thickBot="1">
+      <c r="C224" s="59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
+      <c r="B225" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D225" t="s">
+        <v>420</v>
+      </c>
+      <c r="F225" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
+      <c r="C226" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="D226"/>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D227" t="s">
+        <v>268</v>
+      </c>
+      <c r="F227" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="C228" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D229" t="s">
+        <v>419</v>
+      </c>
+      <c r="F229" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="C230" s="48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="C231" s="48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="C232" s="48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="C233" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="C234" s="48" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="C235" s="48" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="C236" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
+      <c r="C237" s="48" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="C136" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G136" s="21" t="s">
+    <row r="238" spans="2:6">
+      <c r="C238" s="48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="B239" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D239" t="s">
+        <v>421</v>
+      </c>
+      <c r="F239" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" ht="15" thickBot="1">
+      <c r="C240" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="D240"/>
+    </row>
+    <row r="241" spans="2:9">
+      <c r="B241" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D241" t="s">
+        <v>422</v>
+      </c>
+      <c r="F241" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9">
+      <c r="C242" s="48" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9">
+      <c r="B243" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9">
+      <c r="C244" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="C245" s="48" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="C246" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I246" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9">
+      <c r="C247" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I247" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9">
+      <c r="C248" s="48" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9">
+      <c r="C249" s="48" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9">
+      <c r="C250" s="48" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9">
+      <c r="C251" s="48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9">
+      <c r="C252" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="C253" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9">
+      <c r="C254" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9">
+      <c r="C255" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" ht="15" thickBot="1">
+      <c r="C256" s="60" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9">
+      <c r="C257" s="48" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9">
+      <c r="C258" s="48" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9">
+      <c r="C259" s="48" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9">
+      <c r="C260" s="48" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9">
+      <c r="C261" s="48" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9">
+      <c r="B262" s="3">
+        <v>90</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D262" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="I262" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
+      <c r="C264" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D264" s="61" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9">
+      <c r="C266" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9">
+      <c r="C267" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9">
+      <c r="C268" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9">
+      <c r="C269" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9">
+      <c r="C270" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9">
+      <c r="C271" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9">
+      <c r="B272" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9">
+      <c r="B273" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9">
+      <c r="B274" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9">
+      <c r="B275" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9">
+      <c r="C276" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="C137" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="C138" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="C139" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="C140" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="C141" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="C142" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="C143" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="C144" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3">
-      <c r="C145" s="2" t="s">
+    <row r="277" spans="2:9">
+      <c r="C277" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9">
+      <c r="C279" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="146" spans="3:3">
-      <c r="C146" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3">
-      <c r="C147" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3">
-      <c r="C148" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3">
-      <c r="C149" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3">
-      <c r="C150" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3">
-      <c r="C151" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3">
-      <c r="C152" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3">
-      <c r="C153" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3">
-      <c r="C154" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3">
-      <c r="C155" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="156" spans="3:3">
-      <c r="C156" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3">
-      <c r="C158" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3">
-      <c r="C159" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" spans="3:3">
-      <c r="C160" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4">
-      <c r="C161" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="162" spans="3:4">
-      <c r="C162" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="164" spans="3:4">
-      <c r="C164" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="165" spans="3:4">
-      <c r="C165" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="166" spans="3:4">
-      <c r="C166" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="167" spans="3:4">
-      <c r="C167" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="170" spans="3:4">
-      <c r="C170" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4">
-      <c r="C173" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="174" spans="3:4">
-      <c r="C174" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="175" spans="3:4">
-      <c r="C175" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="176" spans="3:4">
-      <c r="C176" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6">
-      <c r="C177" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6">
-      <c r="C178" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6">
-      <c r="C179" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6">
-      <c r="C180" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6">
-      <c r="C181" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6">
-      <c r="C182" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6">
-      <c r="C183" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6">
-      <c r="C184" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6">
-      <c r="C185" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6">
-      <c r="C186" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6">
-      <c r="C187" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6">
-      <c r="C188" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="190" spans="2:6">
-      <c r="C190" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6">
-      <c r="B192" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D192" t="s">
-        <v>528</v>
-      </c>
-      <c r="F192" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7">
-      <c r="C193" s="54" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7">
-      <c r="C194" s="54" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7">
-      <c r="C195" s="54" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7">
-      <c r="C196" s="54" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7">
-      <c r="C197" s="54" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7">
-      <c r="C198" s="54" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7">
-      <c r="C199" s="54" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7">
-      <c r="C200" s="54" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
-      <c r="B201" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C201" s="2" t="s">
+    <row r="280" spans="2:9">
+      <c r="C280"/>
+    </row>
+    <row r="282" spans="2:9">
+      <c r="B282" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D282" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="I282" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="D201" t="s">
-        <v>529</v>
-      </c>
-      <c r="F201" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7">
-      <c r="C202" s="54" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7">
-      <c r="C203" s="54" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7">
-      <c r="C204" s="54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7">
-      <c r="B205" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D205" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F205" t="s">
-        <v>582</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7">
-      <c r="C206" s="54" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7">
-      <c r="C207" s="54" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7">
-      <c r="B208" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D208" t="s">
-        <v>531</v>
-      </c>
-      <c r="F208" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6">
-      <c r="C209" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="D209"/>
-    </row>
-    <row r="210" spans="2:6">
-      <c r="B210" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D210" t="s">
-        <v>269</v>
-      </c>
-      <c r="F210" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6">
-      <c r="C211" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="D211"/>
-    </row>
-    <row r="212" spans="2:6">
-      <c r="B212" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D212" t="s">
-        <v>530</v>
-      </c>
-      <c r="F212" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6">
-      <c r="C213" s="54" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6">
-      <c r="C214" s="54" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6">
-      <c r="C215" s="54" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6">
-      <c r="C216" s="54" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6">
-      <c r="C217" s="54" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6">
-      <c r="C218" s="54" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6">
-      <c r="C219" s="54" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6">
-      <c r="C220" s="54" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6">
-      <c r="C221" s="54" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6">
-      <c r="B222" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D222" t="s">
-        <v>532</v>
-      </c>
-      <c r="F222" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6">
-      <c r="C223" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="D223"/>
-    </row>
-    <row r="224" spans="2:6">
-      <c r="B224" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D224" t="s">
-        <v>533</v>
-      </c>
-      <c r="F224" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8">
-      <c r="C225" s="54" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8">
-      <c r="B226" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8">
-      <c r="C227" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8">
-      <c r="C228" s="54" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8">
-      <c r="C229" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G229" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="H229" s="17" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8">
-      <c r="C230" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="H230" s="17" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8">
-      <c r="C231" s="54" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8">
-      <c r="C233" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8">
-      <c r="C235" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8">
-      <c r="C236" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8">
-      <c r="C237" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8">
-      <c r="C238" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="239" spans="2:8">
-      <c r="C239" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8">
-      <c r="C240" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="241" spans="2:4">
-      <c r="B241" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4">
-      <c r="B242" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4">
-      <c r="B243" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4">
-      <c r="B244" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4">
-      <c r="C247" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4">
-      <c r="C248"/>
-    </row>
-    <row r="250" spans="2:4">
-      <c r="B250" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C250" s="2" t="s">
+    </row>
+    <row r="288" spans="2:9" ht="27">
+      <c r="C288" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" ht="27">
-      <c r="C256" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C256" r:id="rId1"/>
-    <hyperlink ref="O1" r:id="rId2"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="F1" r:id="rId4"/>
+    <hyperlink ref="C288" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="F1" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4" display="scancode.doc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/FYI/Table_of_all_scan_codes.xlsx
+++ b/FYI/Table_of_all_scan_codes.xlsx
@@ -21,7 +21,7 @@
     <author>TaranVanHemert</author>
   </authors>
   <commentList>
-    <comment ref="F120" authorId="0">
+    <comment ref="F132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G120" authorId="0">
+    <comment ref="H132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F126" authorId="0">
+    <comment ref="F138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="G127" authorId="0">
+    <comment ref="F139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TaranVanHemert:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+according to Corsair.
+This is troublesome.
+I should tell them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H140" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G134" authorId="0">
+    <comment ref="H147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D222" authorId="0">
+    <comment ref="D235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="646">
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/API/KeyboardEvent/code</t>
   </si>
@@ -748,18 +774,12 @@
     <t>]</t>
   </si>
   <si>
-    <t>{LWin}</t>
-  </si>
-  <si>
     <t>SC15B</t>
   </si>
   <si>
     <t>SC136</t>
   </si>
   <si>
-    <t>{RShift}</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -793,9 +813,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>{LShift}</t>
-  </si>
-  <si>
     <t>'</t>
   </si>
   <si>
@@ -829,18 +846,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>{Enter}</t>
-  </si>
-  <si>
-    <t>{Lalt}</t>
-  </si>
-  <si>
-    <t>{space}</t>
-  </si>
-  <si>
-    <t>{CapsLock}</t>
-  </si>
-  <si>
     <t>Pause/break</t>
   </si>
   <si>
@@ -850,36 +855,18 @@
     <t>SC15C</t>
   </si>
   <si>
-    <t>{RWin}</t>
-  </si>
-  <si>
-    <t>{AppsKey}</t>
-  </si>
-  <si>
     <t>SC15D</t>
   </si>
   <si>
     <t>SC11D</t>
   </si>
   <si>
-    <t>{PrintScreen}</t>
-  </si>
-  <si>
-    <t>{RCtrl}</t>
-  </si>
-  <si>
     <t>NumpadDiv</t>
   </si>
   <si>
     <t>SC135</t>
   </si>
   <si>
-    <t>{NumpadMult}</t>
-  </si>
-  <si>
-    <t>{NumpadSub}</t>
-  </si>
-  <si>
     <t>6B</t>
   </si>
   <si>
@@ -931,9 +918,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>4D</t>
-  </si>
-  <si>
     <t>SC133</t>
   </si>
   <si>
@@ -1051,12 +1035,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>{NumpadClear}</t>
-  </si>
-  <si>
-    <t>{LControl}</t>
-  </si>
-  <si>
     <t>Help</t>
   </si>
   <si>
@@ -1099,51 +1077,18 @@
     <t>free? - this WAS right CTRL</t>
   </si>
   <si>
-    <t>keyboard Lang 3</t>
-  </si>
-  <si>
     <t>Corsair's name</t>
   </si>
   <si>
-    <t>Keyboard Lang 4</t>
-  </si>
-  <si>
-    <t>Keyboard Lang 1</t>
-  </si>
-  <si>
-    <t>Keyboard Lang 2</t>
-  </si>
-  <si>
-    <t>Keyboard Intl' 1</t>
-  </si>
-  <si>
-    <t>Keyboard intl 2</t>
-  </si>
-  <si>
-    <t>Keyboard Intl' 3</t>
-  </si>
-  <si>
     <t>FF</t>
   </si>
   <si>
-    <t>Keyboard Intl' 4</t>
-  </si>
-  <si>
-    <t>Keyboard Intl' 5</t>
-  </si>
-  <si>
-    <t>Keyboard Intl' 6</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
     <t>Keyboard Non-US # and ~</t>
   </si>
   <si>
-    <t>Keyboard Non-US \ and |</t>
-  </si>
-  <si>
     <t>Keypad , (Brazilian Keypad)</t>
   </si>
   <si>
@@ -1444,9 +1389,6 @@
     <t xml:space="preserve">Volume_Up   </t>
   </si>
   <si>
-    <t>//////</t>
-  </si>
-  <si>
     <t>SC155</t>
   </si>
   <si>
@@ -1555,7 +1497,7 @@
     <t>????</t>
   </si>
   <si>
-    <t>???? Not sure if this is right…</t>
+    <t>??????</t>
   </si>
   <si>
     <t>SC137</t>
@@ -1570,9 +1512,6 @@
     <t>Previous Track</t>
   </si>
   <si>
-    <t>Next track</t>
-  </si>
-  <si>
     <t>Mute</t>
   </si>
   <si>
@@ -1585,13 +1524,7 @@
     <t>A3</t>
   </si>
   <si>
-    <t>Right Ctrl</t>
-  </si>
-  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>Left Ctrl</t>
   </si>
   <si>
     <t>TERRIBLE IDEA, MUST FIX: extra keyboard via Intercept.exe: rightCtrl (Azio keyboard)</t>
@@ -1665,12 +1598,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>{NumpadAdd}</t>
-  </si>
-  <si>
-    <t>{NumpadDot}</t>
-  </si>
-  <si>
     <t>Dangerous…</t>
   </si>
   <si>
@@ -1800,27 +1727,6 @@
     <t>WORKS as modifier</t>
   </si>
   <si>
-    <t>Keyboard lang 6</t>
-  </si>
-  <si>
-    <t>Keyboard lang 7</t>
-  </si>
-  <si>
-    <t>Keyboard lang 8</t>
-  </si>
-  <si>
-    <t>Keyboard lang 9</t>
-  </si>
-  <si>
-    <t>Keyboard Intl' 7</t>
-  </si>
-  <si>
-    <t>Keyboard Intl' 8</t>
-  </si>
-  <si>
-    <t>Keyboard Intl' 9</t>
-  </si>
-  <si>
     <t>[AHK couldn't detect the keystroke]</t>
   </si>
   <si>
@@ -1830,14 +1736,425 @@
     <t>Info from scancode.doc</t>
   </si>
   <si>
-    <t>Keyboard Lang 5  /  F24 ???</t>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>????????</t>
+  </si>
+  <si>
+    <t>NumpadEnter</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>Left Gui</t>
+  </si>
+  <si>
+    <t>Right Gui</t>
+  </si>
+  <si>
+    <t>Num Lock</t>
+  </si>
+  <si>
+    <t>???????? These could be totally wrong…</t>
+  </si>
+  <si>
+    <t>Keypad_-</t>
+  </si>
+  <si>
+    <t>Keypad_7</t>
+  </si>
+  <si>
+    <t>Keypad_8</t>
+  </si>
+  <si>
+    <t>Keypad_9</t>
+  </si>
+  <si>
+    <t>Keypad_4</t>
+  </si>
+  <si>
+    <t>Keypad_5</t>
+  </si>
+  <si>
+    <t>Keypad_6</t>
+  </si>
+  <si>
+    <t>Keypad_+</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>LeftShift</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ScollLock</t>
+  </si>
+  <si>
+    <t>SC150</t>
+  </si>
+  <si>
+    <t>SC151</t>
+  </si>
+  <si>
+    <t>SC152</t>
+  </si>
+  <si>
+    <t>SC153</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>DownArrow</t>
+  </si>
+  <si>
+    <t>SC146</t>
+  </si>
+  <si>
+    <t>SC147</t>
+  </si>
+  <si>
+    <t>SC148</t>
+  </si>
+  <si>
+    <t>SC149</t>
+  </si>
+  <si>
+    <t>SC14A</t>
+  </si>
+  <si>
+    <t>SC14B</t>
+  </si>
+  <si>
+    <t>SC14C</t>
+  </si>
+  <si>
+    <t>SC14E</t>
+  </si>
+  <si>
+    <t>SC14F</t>
+  </si>
+  <si>
+    <t>SC14D</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>UpArrow</t>
+  </si>
+  <si>
+    <t>LeftArrow</t>
+  </si>
+  <si>
+    <t>RightArrow</t>
+  </si>
+  <si>
+    <t>Keypad_/</t>
+  </si>
+  <si>
+    <t>RightShift</t>
+  </si>
+  <si>
+    <t>Keypad_Enter</t>
+  </si>
+  <si>
+    <t>Next Track</t>
+  </si>
+  <si>
+    <t>RightCtrl</t>
+  </si>
+  <si>
+    <t>NonUS_~</t>
+  </si>
+  <si>
+    <t>NonUS_\</t>
+  </si>
+  <si>
+    <t>Lang9</t>
+  </si>
+  <si>
+    <t>Lang6</t>
+  </si>
+  <si>
+    <t>Lang7</t>
+  </si>
+  <si>
+    <t>Lang8</t>
+  </si>
+  <si>
+    <t>Lang3</t>
+  </si>
+  <si>
+    <t>Lang4</t>
+  </si>
+  <si>
+    <t>Keypad_,</t>
+  </si>
+  <si>
+    <t>International9</t>
+  </si>
+  <si>
+    <t>International7</t>
+  </si>
+  <si>
+    <t>International8</t>
+  </si>
+  <si>
+    <t>International3</t>
+  </si>
+  <si>
+    <t>International5</t>
+  </si>
+  <si>
+    <t>International4</t>
+  </si>
+  <si>
+    <t>International1</t>
+  </si>
+  <si>
+    <t>International2</t>
+  </si>
+  <si>
+    <t>SC054</t>
+  </si>
+  <si>
+    <t>PauseBreak</t>
+  </si>
+  <si>
+    <t>NumpadHome</t>
+  </si>
+  <si>
+    <t>NumpadUp</t>
+  </si>
+  <si>
+    <t>NumpadPgUp</t>
+  </si>
+  <si>
+    <t>Keypad_.</t>
+  </si>
+  <si>
+    <t>Keypad_Delete</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>NumpadDel</t>
+  </si>
+  <si>
+    <t>LControl</t>
+  </si>
+  <si>
+    <t>LShift</t>
+  </si>
+  <si>
+    <t>RShift</t>
+  </si>
+  <si>
+    <t>NumpadMult</t>
+  </si>
+  <si>
+    <t>Lalt</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>CapsLock</t>
+  </si>
+  <si>
+    <t>NumpadSub</t>
+  </si>
+  <si>
+    <t>NumpadAdd</t>
+  </si>
+  <si>
+    <t>NumpadDot</t>
+  </si>
+  <si>
+    <t>NumpadClear</t>
+  </si>
+  <si>
+    <t>RCtrl</t>
+  </si>
+  <si>
+    <t>LWin</t>
+  </si>
+  <si>
+    <t>RWin</t>
+  </si>
+  <si>
+    <t>AppsKey</t>
+  </si>
+  <si>
+    <t>NumpadLeft</t>
+  </si>
+  <si>
+    <t>NumpadRight</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>NumpadIns</t>
+  </si>
+  <si>
+    <t>Keypad_0</t>
+  </si>
+  <si>
+    <t>Keypad_1</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Keypad_3</t>
+  </si>
+  <si>
+    <t>NumpadEnd</t>
+  </si>
+  <si>
+    <t>NumpadPgDn</t>
+  </si>
+  <si>
+    <t>NumpadDown</t>
+  </si>
+  <si>
+    <t>Keypad_2</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Should probably avoid this one, might be used for a numpad thing by someone</t>
+  </si>
+  <si>
+    <t>International6</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Lang5</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>Left shift</t>
+  </si>
+  <si>
+    <t>Left CTRL</t>
+  </si>
+  <si>
+    <t>Left WIN</t>
+  </si>
+  <si>
+    <t>Left ALT</t>
+  </si>
+  <si>
+    <t>Rshift</t>
+  </si>
+  <si>
+    <t>Rctrl</t>
+  </si>
+  <si>
+    <t>Rwin</t>
+  </si>
+  <si>
+    <t>Ralt</t>
+  </si>
+  <si>
+    <t>try these as</t>
+  </si>
+  <si>
+    <t>remainder</t>
+  </si>
+  <si>
+    <t>num lock??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2004,6 +2321,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2069,15 +2400,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <i/>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2107,8 +2438,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2234,8 +2570,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -2243,8 +2588,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2264,9 +2610,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2386,26 +2729,47 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2707,11 +3071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P288"/>
+  <dimension ref="A1:Q312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F306" sqref="F306"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2722,118 +3086,123 @@
     <col min="4" max="4" width="13.7265625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" style="51" customWidth="1"/>
-    <col min="8" max="8" width="6" style="67" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" customWidth="1"/>
-    <col min="11" max="11" width="19.36328125" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" customWidth="1"/>
-    <col min="16" max="16" width="36.7265625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" style="66" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="36.7265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="34" customFormat="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:17" s="33" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="36"/>
-      <c r="P1" s="37"/>
-    </row>
-    <row r="2" spans="1:16" s="39" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="79" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="F1" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" s="93"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="35"/>
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" s="38" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>643</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" s="21" customFormat="1">
+      <c r="B3" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="P2" s="41"/>
-    </row>
-    <row r="3" spans="1:16" s="22" customFormat="1">
-      <c r="B3" s="26" t="s">
-        <v>336</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" s="22" customFormat="1">
-      <c r="B4" s="27" t="s">
-        <v>337</v>
+      <c r="D3" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" s="21" customFormat="1">
+      <c r="B4" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" s="22" customFormat="1">
+      <c r="D4" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" s="21" customFormat="1">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="17"/>
-      <c r="P5" s="25"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="D5" s="22"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="16"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -2841,46 +3210,46 @@
       <c r="D6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="I6" s="64"/>
+      <c r="J6" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>328</v>
+      <c r="D7" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:16">
+        <v>305</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>329</v>
+      <c r="D8" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="F8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:16">
+        <v>306</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -2888,10 +3257,13 @@
       <c r="D9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="F9" t="s">
+        <v>525</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2899,10 +3271,14 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="I10" s="65"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -2910,10 +3286,14 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="I11" s="65"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -2921,10 +3301,14 @@
       <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="I12" s="65"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -2932,10 +3316,14 @@
       <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="I13" s="65"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -2943,10 +3331,14 @@
       <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="F14" s="6">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="I14" s="65"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -2954,10 +3346,14 @@
       <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="I15" s="65"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -2965,10 +3361,14 @@
       <c r="D16" s="6">
         <v>6</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="F16" s="6">
+        <v>6</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="I16" s="65"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -2976,10 +3376,14 @@
       <c r="D17" s="6">
         <v>7</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="F17" s="6">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="I17" s="65"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -2987,10 +3391,14 @@
       <c r="D18" s="6">
         <v>8</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="F18" s="6">
+        <v>8</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="I18" s="65"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -2998,10 +3406,14 @@
       <c r="D19" s="6">
         <v>9</v>
       </c>
-      <c r="H19" s="66"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="F19" s="6">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="I19" s="65"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -3009,13 +3421,17 @@
       <c r="D20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20"/>
-      <c r="J20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="F20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="I20" s="65"/>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -3023,13 +3439,17 @@
       <c r="D21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21"/>
-      <c r="J21" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="F21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="I21" s="65"/>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -3037,37 +3457,44 @@
       <c r="D22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22"/>
-      <c r="J22" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="65"/>
+      <c r="J22"/>
+      <c r="K22" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="M22" s="41"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23"/>
-      <c r="J23" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="K23" s="42" t="s">
+      <c r="F23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="I23" s="65"/>
+      <c r="J23"/>
+      <c r="K23" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="L23" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -3075,19 +3502,23 @@
       <c r="D24" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24"/>
-      <c r="J24" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="K24" s="42" t="s">
+      <c r="F24" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="I24" s="65"/>
+      <c r="J24"/>
+      <c r="K24" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="L24" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="43" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -3095,19 +3526,23 @@
       <c r="D25" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25"/>
-      <c r="J25" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" s="42" t="s">
+      <c r="F25" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="I25" s="65"/>
+      <c r="J25"/>
+      <c r="K25" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="L25" s="43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -3115,19 +3550,23 @@
       <c r="D26" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="66"/>
-      <c r="I26"/>
-      <c r="J26" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="K26" s="42" t="s">
+      <c r="F26" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="I26" s="65"/>
+      <c r="J26"/>
+      <c r="K26" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="L26" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="L26" s="43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -3135,19 +3574,23 @@
       <c r="D27" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H27" s="66"/>
-      <c r="I27"/>
-      <c r="J27" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="K27" s="42" t="s">
+      <c r="F27" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="I27" s="65"/>
+      <c r="J27"/>
+      <c r="K27" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L27" s="43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -3155,19 +3598,23 @@
       <c r="D28" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28"/>
-      <c r="J28" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="K28" s="42" t="s">
+      <c r="F28" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="I28" s="65"/>
+      <c r="J28"/>
+      <c r="K28" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
@@ -3175,19 +3622,23 @@
       <c r="D29" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H29" s="66"/>
-      <c r="I29"/>
-      <c r="J29" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K29" s="42" t="s">
+      <c r="F29" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="I29" s="65"/>
+      <c r="J29"/>
+      <c r="K29" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="43" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>23</v>
@@ -3195,19 +3646,23 @@
       <c r="D30" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30"/>
-      <c r="J30" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="K30" s="42" t="s">
+      <c r="F30" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="I30" s="65"/>
+      <c r="J30"/>
+      <c r="K30" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
@@ -3215,19 +3670,23 @@
       <c r="D31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="66"/>
-      <c r="I31"/>
-      <c r="J31" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="K31" s="42" t="s">
+      <c r="F31" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="I31" s="65"/>
+      <c r="J31"/>
+      <c r="K31" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="L31" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -3235,37 +3694,44 @@
       <c r="D32" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="66"/>
-      <c r="I32"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="B33" s="12">
+      <c r="F32" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="I32" s="65"/>
+      <c r="J32"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="11">
         <v>50</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="H33" s="66"/>
-      <c r="I33"/>
-      <c r="J33" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="K33" s="44" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="I33" s="65"/>
+      <c r="J33"/>
+      <c r="K33" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>27</v>
@@ -3273,19 +3739,22 @@
       <c r="D34" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H34" s="66"/>
-      <c r="I34"/>
-      <c r="J34" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="K34" s="42" t="s">
+      <c r="F34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="65"/>
+      <c r="J34"/>
+      <c r="K34" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>28</v>
@@ -3293,237 +3762,277 @@
       <c r="D35" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H35" s="66"/>
-      <c r="I35"/>
-      <c r="J35" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="K35" s="42" t="s">
+      <c r="F35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="65"/>
+      <c r="J35"/>
+      <c r="K35" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L35" s="43" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" s="66"/>
-      <c r="I36"/>
-      <c r="J36" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="K36" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="F36" t="s">
+        <v>528</v>
+      </c>
+      <c r="I36" s="65"/>
+      <c r="J36"/>
+      <c r="K36" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="L36" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>293</v>
+        <v>593</v>
       </c>
       <c r="E37" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="F37" t="s">
-        <v>472</v>
-      </c>
-      <c r="H37" s="66"/>
-      <c r="I37" t="s">
-        <v>473</v>
-      </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="43" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>623</v>
+      </c>
+      <c r="I37" s="65"/>
+      <c r="J37" t="s">
+        <v>442</v>
+      </c>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H38" s="66"/>
-      <c r="I38"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>624</v>
+      </c>
+      <c r="I38" s="65"/>
+      <c r="J38"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="57" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H39" s="66"/>
-      <c r="I39"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-    </row>
-    <row r="40" spans="1:12">
+        <v>213</v>
+      </c>
+      <c r="F39" t="s">
+        <v>625</v>
+      </c>
+      <c r="I39" s="65"/>
+      <c r="J39"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="66"/>
-      <c r="I40"/>
-      <c r="J40" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="K40" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="L40" s="43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>212</v>
+      </c>
+      <c r="F40" t="s">
+        <v>626</v>
+      </c>
+      <c r="I40" s="65"/>
+      <c r="J40"/>
+      <c r="K40" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="M40" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="H41" s="66"/>
-      <c r="I41"/>
-      <c r="J41" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="D41" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="I41" s="65"/>
+      <c r="J41"/>
+      <c r="K41" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M41" s="44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
       <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H42" s="66"/>
-      <c r="I42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-    </row>
-    <row r="43" spans="1:12">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
+        <v>628</v>
+      </c>
+      <c r="I42" s="65"/>
+      <c r="J42"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H43" s="66"/>
-      <c r="I43"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-    </row>
-    <row r="44" spans="1:12">
+        <v>209</v>
+      </c>
+      <c r="F43" t="s">
+        <v>629</v>
+      </c>
+      <c r="I43" s="65"/>
+      <c r="J43"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="66"/>
-      <c r="I44"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-    </row>
-    <row r="45" spans="1:12">
+        <v>208</v>
+      </c>
+      <c r="F44" t="s">
+        <v>630</v>
+      </c>
+      <c r="I44" s="65"/>
+      <c r="J44"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" s="66"/>
-      <c r="I45"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-    </row>
-    <row r="46" spans="1:12">
+        <v>207</v>
+      </c>
+      <c r="F45" t="s">
+        <v>631</v>
+      </c>
+      <c r="I45" s="65"/>
+      <c r="J45"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" s="66"/>
-      <c r="I46"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-    </row>
-    <row r="47" spans="1:12">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>632</v>
+      </c>
+      <c r="I46" s="65"/>
+      <c r="J46"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H47" s="66"/>
-      <c r="I47"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-    </row>
-    <row r="48" spans="1:12">
+        <v>205</v>
+      </c>
+      <c r="F47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="65"/>
+      <c r="J47"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
       <c r="C48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H48" s="66"/>
-      <c r="I48"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-    </row>
-    <row r="49" spans="1:12">
+        <v>204</v>
+      </c>
+      <c r="F48" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="90"/>
+      <c r="I48" s="65"/>
+      <c r="J48"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>42</v>
@@ -3531,2265 +4040,2827 @@
       <c r="D49" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="66"/>
-      <c r="I49"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="I49" s="65"/>
+      <c r="J49"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G50" s="51" t="s">
-        <v>484</v>
-      </c>
-      <c r="H50" s="66"/>
-      <c r="I50"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-    </row>
-    <row r="51" spans="1:12">
+        <v>594</v>
+      </c>
+      <c r="F50" t="s">
+        <v>527</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="I50" s="65"/>
+      <c r="J50"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" t="s">
-        <v>321</v>
-      </c>
-      <c r="H51" s="66"/>
-      <c r="I51"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-    </row>
-    <row r="52" spans="1:12">
+        <v>194</v>
+      </c>
+      <c r="F51" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="91"/>
+      <c r="I51" s="65"/>
+      <c r="J51"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="C52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H52" s="66"/>
-      <c r="I52"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-    </row>
-    <row r="53" spans="1:12">
+        <v>194</v>
+      </c>
+      <c r="F52" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="G52" s="91"/>
+      <c r="I52" s="65"/>
+      <c r="J52" t="s">
+        <v>295</v>
+      </c>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="M52" s="41"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H53" s="66"/>
-      <c r="I53"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-    </row>
-    <row r="54" spans="1:12">
+        <v>195</v>
+      </c>
+      <c r="I53" s="65"/>
+      <c r="J53"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
       <c r="C54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" s="65"/>
+      <c r="J54"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="C55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H54" s="66"/>
-      <c r="I54"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-    </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1">
-      <c r="A55" s="1"/>
-      <c r="C55" s="58" t="s">
+      <c r="D55" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I55" s="65"/>
+      <c r="J55"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1">
+      <c r="A56" s="1"/>
+      <c r="C56" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" s="66"/>
-      <c r="I55"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1"/>
-      <c r="C56" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H56" s="66"/>
-      <c r="I56"/>
-      <c r="J56" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="K56" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="L56" s="43" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>197</v>
+      </c>
+      <c r="I56" s="65"/>
+      <c r="J56"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H57" s="66"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:12">
+        <v>198</v>
+      </c>
+      <c r="I57" s="65"/>
+      <c r="J57"/>
+      <c r="K57" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="L57" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" s="42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H58" s="66"/>
-      <c r="I58"/>
-    </row>
-    <row r="59" spans="1:12">
+        <v>199</v>
+      </c>
+      <c r="I58" s="65"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" s="66"/>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:12">
+        <v>200</v>
+      </c>
+      <c r="I59" s="65"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H60" s="66"/>
-      <c r="I60"/>
-    </row>
-    <row r="61" spans="1:12">
+        <v>201</v>
+      </c>
+      <c r="I60" s="65"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H61" s="66"/>
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:12">
+        <v>202</v>
+      </c>
+      <c r="I61" s="65"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G62" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="H62" s="66"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:12">
+        <v>203</v>
+      </c>
+      <c r="I62" s="65"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H63" s="66"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:12">
+        <v>595</v>
+      </c>
+      <c r="F63" t="s">
+        <v>563</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="I63" s="65"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H64" s="66"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9">
+        <v>596</v>
+      </c>
+      <c r="I64" s="65"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H65" s="66"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9">
+        <v>597</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="I65" s="65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H66" s="66"/>
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9">
+        <v>598</v>
+      </c>
+      <c r="I66" s="65"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H67" s="66"/>
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9">
+        <v>599</v>
+      </c>
+      <c r="I67" s="65"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H68" s="66"/>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="65"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" s="66"/>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="65"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1"/>
       <c r="C70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" t="s">
+        <v>135</v>
+      </c>
+      <c r="I70" s="65"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1"/>
+      <c r="C71" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H70" s="66"/>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" ht="15" thickBot="1">
-      <c r="A71" s="1"/>
-      <c r="C71" s="58" t="s">
+      <c r="F71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" s="65"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" thickBot="1">
+      <c r="A72" s="1"/>
+      <c r="C72" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H71" s="66"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1"/>
-      <c r="C72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="66"/>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="F72" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="65"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="66"/>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="65"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H74" s="66"/>
-      <c r="I74"/>
-    </row>
-    <row r="75" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>139</v>
+      </c>
+      <c r="I74" s="65"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H75" s="66"/>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" s="65"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H76" s="66"/>
-      <c r="I76"/>
-    </row>
-    <row r="77" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="F76" t="s">
+        <v>141</v>
+      </c>
+      <c r="I76" s="65"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1"/>
       <c r="C77" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>222</v>
-      </c>
-      <c r="H77" s="66"/>
-      <c r="I77" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I77" s="65"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1"/>
       <c r="C78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" t="s">
+        <v>585</v>
+      </c>
+      <c r="I78" s="65"/>
+      <c r="J78" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1"/>
+      <c r="C79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H78" s="66"/>
-      <c r="I78" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1"/>
-      <c r="B79" s="3">
-        <v>67</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H79" s="66"/>
-      <c r="I79"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="F79" t="s">
+        <v>539</v>
+      </c>
+      <c r="I79" s="65"/>
+      <c r="J79" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1"/>
       <c r="B80" s="3">
+        <v>67</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" t="s">
+        <v>518</v>
+      </c>
+      <c r="I80" s="65"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1"/>
+      <c r="B81" s="89">
+        <v>24</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F81" s="88" t="s">
+        <v>518</v>
+      </c>
+      <c r="G81" s="88"/>
+      <c r="I81" s="65"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1"/>
+      <c r="B82" s="3">
         <v>68</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H80" s="66"/>
-      <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1"/>
-      <c r="B81" s="3">
-        <v>69</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H81" s="66"/>
-      <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1"/>
-      <c r="B82" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H82" s="66"/>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="F82" t="s">
+        <v>519</v>
+      </c>
+      <c r="I82" s="65"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1"/>
-      <c r="B83" s="3">
-        <v>64</v>
+      <c r="B83" s="89">
+        <v>26</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H83" s="66"/>
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F83" s="88" t="s">
+        <v>519</v>
+      </c>
+      <c r="G83" s="88"/>
+      <c r="I83" s="65"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1"/>
       <c r="B84" s="3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H84" s="66"/>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="F84" t="s">
+        <v>520</v>
+      </c>
+      <c r="I84" s="65"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1"/>
-      <c r="B85" s="3">
-        <v>66</v>
+      <c r="B85" s="89">
+        <v>21</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H85" s="66"/>
-      <c r="I85"/>
-    </row>
-    <row r="86" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="F85" s="88" t="s">
+        <v>520</v>
+      </c>
+      <c r="G85" s="88"/>
+      <c r="I85" s="65"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1"/>
       <c r="B86" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="H86" s="66"/>
-      <c r="I86"/>
-    </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1">
+        <v>600</v>
+      </c>
+      <c r="F86" t="s">
+        <v>517</v>
+      </c>
+      <c r="I86" s="65"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1"/>
       <c r="B87" s="3">
-        <v>61</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H87" s="66"/>
-      <c r="I87"/>
-    </row>
-    <row r="88" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="F87" t="s">
+        <v>521</v>
+      </c>
+      <c r="I87" s="65"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1"/>
-      <c r="B88" s="3">
-        <v>62</v>
+      <c r="B88" s="89">
+        <v>25</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H88" s="66"/>
-      <c r="I88"/>
-    </row>
-    <row r="89" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="F88" s="88" t="s">
+        <v>521</v>
+      </c>
+      <c r="G88" s="88"/>
+      <c r="I88" s="65"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1"/>
       <c r="B89" s="3">
+        <v>65</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" t="s">
+        <v>522</v>
+      </c>
+      <c r="I89" s="65"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1"/>
+      <c r="B90" s="89" t="s">
+        <v>610</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F90" s="88" t="s">
+        <v>522</v>
+      </c>
+      <c r="G90" s="88"/>
+      <c r="I90" s="65"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1"/>
+      <c r="B91" s="3">
+        <v>66</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F91" t="s">
+        <v>523</v>
+      </c>
+      <c r="I91" s="65"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1"/>
+      <c r="B92" s="89">
+        <v>27</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F92" s="88" t="s">
+        <v>523</v>
+      </c>
+      <c r="G92" s="88"/>
+      <c r="I92" s="65"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1"/>
+      <c r="B93" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="F93" t="s">
+        <v>524</v>
+      </c>
+      <c r="I93" s="65"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" ht="15" thickBot="1">
+      <c r="A94" s="1"/>
+      <c r="B94" s="3">
+        <v>61</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" t="s">
+        <v>613</v>
+      </c>
+      <c r="I94" s="65"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" ht="15" thickBot="1">
+      <c r="A95" s="1"/>
+      <c r="B95" s="89">
+        <v>23</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="F95" s="88" t="s">
+        <v>613</v>
+      </c>
+      <c r="G95" s="88"/>
+      <c r="I95" s="65"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1"/>
+      <c r="B96" s="3">
+        <v>62</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F96" t="s">
+        <v>619</v>
+      </c>
+      <c r="I96" s="65"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1"/>
+      <c r="B97" s="89">
+        <v>28</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="F97" s="88" t="s">
+        <v>619</v>
+      </c>
+      <c r="G97" s="88"/>
+      <c r="I97" s="65"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1"/>
+      <c r="B98" s="3">
         <v>63</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H89" s="66"/>
-      <c r="I89"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1"/>
-      <c r="B90" s="3">
+      <c r="F98" t="s">
+        <v>615</v>
+      </c>
+      <c r="I98" s="65"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1"/>
+      <c r="B99" s="89">
+        <v>22</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="F99" s="88" t="s">
+        <v>615</v>
+      </c>
+      <c r="G99" s="88"/>
+      <c r="I99" s="65"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1"/>
+      <c r="B100" s="3">
         <v>60</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H90" s="66"/>
-      <c r="I90"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
-      <c r="B91" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="F100" t="s">
+        <v>612</v>
+      </c>
+      <c r="I100" s="65"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1"/>
+      <c r="B101" s="89" t="s">
+        <v>614</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="H91" s="66"/>
-      <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1"/>
-      <c r="B92" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="D101" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="F101" s="88" t="s">
+        <v>612</v>
+      </c>
+      <c r="G101" s="88"/>
+      <c r="I101" s="65"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1"/>
+      <c r="B102" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F102" t="s">
+        <v>589</v>
+      </c>
+      <c r="I102" s="65"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1"/>
+      <c r="B103" s="89" t="s">
+        <v>591</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="88" t="s">
+        <v>590</v>
+      </c>
+      <c r="G103" s="88"/>
+      <c r="I103" s="65"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H92" s="66"/>
-      <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1"/>
-      <c r="C93" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H93" s="66"/>
-      <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1"/>
-      <c r="B94" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E94" t="s">
-        <v>324</v>
-      </c>
-      <c r="F94" t="s">
-        <v>322</v>
-      </c>
-      <c r="H94" s="66"/>
-      <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1"/>
-      <c r="B95" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H95" s="66"/>
-      <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1"/>
-      <c r="B96" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H96" s="66"/>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1"/>
-      <c r="B97" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" t="s">
-        <v>296</v>
-      </c>
-      <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1"/>
-      <c r="B98" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1"/>
-      <c r="B99" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H99" s="67" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1"/>
-      <c r="B100" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F100" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="H100" s="69" t="s">
-        <v>536</v>
-      </c>
-      <c r="I100" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1"/>
-      <c r="C101" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G101" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1"/>
-      <c r="C102" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G102" s="51" t="s">
-        <v>479</v>
-      </c>
-      <c r="I102" s="18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A103" s="1"/>
-      <c r="C103" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G103" s="51" t="s">
-        <v>480</v>
-      </c>
-      <c r="I103" s="18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1"/>
-      <c r="C104" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G104" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="I104" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="F104" t="s">
+        <v>155</v>
+      </c>
+      <c r="I104" s="65"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1"/>
       <c r="C105" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G105" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" s="65"/>
+      <c r="J105" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1"/>
       <c r="B106" s="3" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H106" s="67" t="s">
-        <v>529</v>
-      </c>
-      <c r="I106" s="18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="E106" t="s">
+        <v>297</v>
+      </c>
+      <c r="F106" t="s">
+        <v>568</v>
+      </c>
+      <c r="I106" s="65"/>
+      <c r="J106" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1"/>
       <c r="B107" s="3" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G107" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F107" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107" s="80"/>
+      <c r="I107" s="65"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1"/>
+      <c r="B108" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="C108" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F108" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="H108" s="69">
-        <v>1</v>
-      </c>
-      <c r="I108" s="18" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" s="80"/>
+      <c r="I108" s="65"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1"/>
+      <c r="B109" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="C109" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F109" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="I109" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E109" t="s">
+        <v>280</v>
+      </c>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1"/>
+      <c r="B110" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="C110" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1"/>
+      <c r="B111" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="C111" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F111" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="H111" s="67" t="s">
-        <v>492</v>
-      </c>
-      <c r="I111" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I111" s="66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1"/>
+      <c r="B112" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="C112" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F112" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="77" t="s">
+        <v>622</v>
+      </c>
+      <c r="G112" s="77" t="s">
+        <v>645</v>
+      </c>
+      <c r="I112" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1"/>
       <c r="C113" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F113" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H113" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1"/>
       <c r="C114" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F114" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H114" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="A115" s="1"/>
-      <c r="C115" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F115" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="C115" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H115" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1"/>
       <c r="C116" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F116" s="81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H116" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1"/>
       <c r="C117" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F117" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="I117" s="46" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H117" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1"/>
+      <c r="B118" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="C118" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F118" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="I118" s="47" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15" thickBot="1">
+        <v>98</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I118" s="66" t="s">
+        <v>496</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1"/>
-      <c r="C119" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H119" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="I119" s="28"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="B119" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H119" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1"/>
-      <c r="B120" s="3">
-        <v>0</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E120" t="s">
-        <v>169</v>
-      </c>
-      <c r="F120" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="G120" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="H120" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="I120" s="16"/>
-    </row>
-    <row r="121" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F120" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="G120" s="80"/>
+      <c r="I120" s="68">
+        <v>1</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1"/>
-      <c r="B121" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F121" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="G121" s="52"/>
-      <c r="H121" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="I121" s="20"/>
-    </row>
-    <row r="122" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F121" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="G121" s="80"/>
+      <c r="J121" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1"/>
       <c r="C122" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F122" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="G122" s="52"/>
-      <c r="H122" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="I122" s="20"/>
-    </row>
-    <row r="123" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F122" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="G122" s="80"/>
+      <c r="J122" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1"/>
-      <c r="B123" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F123" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="G123" s="53"/>
-      <c r="H123" s="69" t="s">
-        <v>531</v>
-      </c>
-      <c r="I123" s="16"/>
-    </row>
-    <row r="124" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F123" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="G123" s="80"/>
+      <c r="I123" s="66" t="s">
+        <v>461</v>
+      </c>
+      <c r="J123" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1"/>
       <c r="C124" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I124" s="28"/>
-    </row>
-    <row r="125" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F124" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="G124" s="80"/>
+      <c r="J124" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1"/>
       <c r="C125" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I125" s="28"/>
-    </row>
-    <row r="126" spans="1:9" ht="28">
+        <v>105</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G125" s="80"/>
+      <c r="J125" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1"/>
-      <c r="B126" s="3">
-        <v>87</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F126" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="G126" s="52"/>
-      <c r="H126" s="68" t="s">
-        <v>535</v>
-      </c>
-      <c r="I126" s="47" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="G126" s="80"/>
+      <c r="J126" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1"/>
       <c r="C127" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F127" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="G127" s="51" t="s">
-        <v>475</v>
-      </c>
-      <c r="H127" s="69" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G127" s="80"/>
+      <c r="J127" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1"/>
       <c r="C128" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F128" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="G128" s="54"/>
-      <c r="H128" s="69" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F128" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="G128" s="80"/>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1"/>
-      <c r="B129" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F129" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="G129" s="53"/>
-      <c r="H129" s="69" t="s">
-        <v>531</v>
-      </c>
-      <c r="I129" s="16"/>
-    </row>
-    <row r="130" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F129" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="G129" s="80"/>
+      <c r="J129" s="45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1"/>
       <c r="C130" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D130" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F130" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="G130" s="80"/>
+      <c r="J130" s="46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" thickBot="1">
+      <c r="A131" s="1"/>
+      <c r="C131" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D131" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G130" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="I130" s="28"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1"/>
-      <c r="B131" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D131" s="29" t="s">
+      <c r="I131" s="66" t="s">
+        <v>500</v>
+      </c>
+      <c r="J131" s="27"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1"/>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F131" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="G131" s="51" t="s">
-        <v>482</v>
-      </c>
-      <c r="H131" s="67" t="s">
-        <v>459</v>
-      </c>
-      <c r="I131" s="28"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1"/>
-      <c r="C132" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D132" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G132" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="I132" s="28"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="E132" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="G132" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="H132" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="I132" s="68" t="s">
+        <v>504</v>
+      </c>
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1"/>
       <c r="B133" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G133" s="72" t="s">
+        <v>636</v>
+      </c>
+      <c r="H133" s="51"/>
+      <c r="I133" s="69" t="s">
+        <v>497</v>
+      </c>
+      <c r="J133" s="19"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1"/>
+      <c r="C134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F134" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="G134" s="72" t="s">
+        <v>637</v>
+      </c>
+      <c r="H134" s="51"/>
+      <c r="I134" s="69" t="s">
+        <v>497</v>
+      </c>
+      <c r="J134" s="19"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1"/>
+      <c r="B135" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F135" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="G135" s="75" t="s">
+        <v>638</v>
+      </c>
+      <c r="H135" s="52"/>
+      <c r="I135" s="68" t="s">
+        <v>498</v>
+      </c>
+      <c r="J135" s="15"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1"/>
+      <c r="C136" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J136" s="27"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1"/>
+      <c r="C137" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J137" s="27"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1"/>
+      <c r="B138" s="3">
+        <v>87</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F138" s="92" t="s">
+        <v>633</v>
+      </c>
+      <c r="G138" s="92"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="J138" s="46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1"/>
+      <c r="B139" s="3">
+        <v>87</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F139" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G139" s="92"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="J139" s="46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1"/>
+      <c r="C140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F140" s="74" t="s">
+        <v>574</v>
+      </c>
+      <c r="G140" s="74" t="s">
+        <v>639</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="I140" s="68" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1"/>
+      <c r="C141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F141" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="G141" s="74" t="s">
+        <v>640</v>
+      </c>
+      <c r="H141" s="53"/>
+      <c r="I141" s="68" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1"/>
+      <c r="B142" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F142" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="G142" s="75" t="s">
+        <v>641</v>
+      </c>
+      <c r="H142" s="52"/>
+      <c r="I142" s="68" t="s">
+        <v>498</v>
+      </c>
+      <c r="J142" s="15"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1"/>
+      <c r="C143" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H143" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J143" s="27"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1"/>
+      <c r="B144" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F144" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="G144" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="H144" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="I144" s="66" t="s">
+        <v>431</v>
+      </c>
+      <c r="J144" s="27"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1"/>
+      <c r="C145" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H145" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J145" s="27"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1"/>
+      <c r="B146" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F146" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="G146" s="75" t="s">
+        <v>644</v>
+      </c>
+      <c r="H146" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="I146" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1"/>
+      <c r="B147" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E147" t="s">
+        <v>296</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="H147" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="I147" s="68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15" thickBot="1">
+      <c r="A148" s="1"/>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H148" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J148" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="28"/>
+      <c r="J149" s="27"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1"/>
+      <c r="C150" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F150" s="73" t="s">
+        <v>570</v>
+      </c>
+      <c r="G150" s="73"/>
+      <c r="J150" s="27"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1"/>
+      <c r="C151" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F151" s="73" t="s">
+        <v>571</v>
+      </c>
+      <c r="G151" s="73"/>
+      <c r="J151" s="27"/>
+      <c r="L151" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1"/>
+      <c r="C152" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F152" s="73" t="s">
+        <v>572</v>
+      </c>
+      <c r="G152" s="73"/>
+      <c r="J152" s="27"/>
+      <c r="L152" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1"/>
+      <c r="C153" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F153" s="73" t="s">
+        <v>569</v>
+      </c>
+      <c r="G153" s="73"/>
+      <c r="J153" s="27"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1"/>
+      <c r="C154" s="70"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="J154" s="27"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1"/>
+      <c r="C155" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F155" s="77" t="s">
+        <v>577</v>
+      </c>
+      <c r="G155" s="77"/>
+      <c r="J155" s="27"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1"/>
+      <c r="C156" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F156" s="77" t="s">
+        <v>578</v>
+      </c>
+      <c r="G156" s="77"/>
+      <c r="J156" s="27"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1"/>
+      <c r="C157" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F157" s="77" t="s">
+        <v>576</v>
+      </c>
+      <c r="G157" s="77"/>
+      <c r="J157" s="27"/>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="28"/>
+      <c r="J158" s="27"/>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="C159" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="J159" s="17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="C160" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="3:12">
+      <c r="C161" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L161" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="162" spans="3:12">
+      <c r="C162" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L162" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12">
+      <c r="C163" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F133" s="76" t="s">
-        <v>315</v>
-      </c>
-      <c r="G133" s="51" t="s">
+      <c r="L163" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="164" spans="3:12">
+      <c r="C164" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="165" spans="3:12">
+      <c r="C165" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="3:12">
+      <c r="C166" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="3:12">
+      <c r="C167" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="168" spans="3:12">
+      <c r="C168" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="169" spans="3:12">
+      <c r="C169" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="170" spans="3:12">
+      <c r="C170" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="3:12">
+      <c r="C171" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="172" spans="3:12">
+      <c r="C172" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="3:12">
+      <c r="C173" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" spans="3:12" ht="15" thickBot="1">
+      <c r="C174" s="57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="3:12">
+      <c r="C175" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="176" spans="3:12">
+      <c r="C176" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4">
+      <c r="C177" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4">
+      <c r="C178" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4">
+      <c r="C179" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4">
+      <c r="C180" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4">
+      <c r="C181" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4">
+      <c r="C182" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4">
+      <c r="C183" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4">
+      <c r="C184" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4">
+      <c r="C185" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4">
+      <c r="C186" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4">
+      <c r="C187" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4">
+      <c r="C188" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4">
+      <c r="C189" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" ht="15" thickBot="1">
+      <c r="C190" s="57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4">
+      <c r="C192" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10">
+      <c r="C194" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H194" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="J194" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10">
+      <c r="C195" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H195" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J195" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10">
+      <c r="C197" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10" ht="15" thickBot="1">
+      <c r="C198" s="57"/>
+    </row>
+    <row r="199" spans="3:10">
+      <c r="C199" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="H199" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="J199" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10">
+      <c r="C200" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="201" spans="3:10">
+      <c r="C201" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="202" spans="3:10">
+      <c r="C202" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10">
+      <c r="C203" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="204" spans="3:10">
+      <c r="C204" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="205" spans="3:10">
+      <c r="C205" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="206" spans="3:10">
+      <c r="C206" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="207" spans="3:10" ht="15" customHeight="1">
+      <c r="C207" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="208" spans="3:10">
+      <c r="C208" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10">
+      <c r="C209" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10">
+      <c r="C210" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10">
+      <c r="C211" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10">
+      <c r="C212" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10">
+      <c r="C213" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" ht="15" thickBot="1">
+      <c r="C214" s="57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10">
+      <c r="C215" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="H215" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="J215" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10">
+      <c r="C216" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="H216" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="J216" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10">
+      <c r="C217" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="H217" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="J217" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10">
+      <c r="C218" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="H218" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="J218" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10">
+      <c r="C220" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10">
+      <c r="B222" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D222" t="s">
+        <v>390</v>
+      </c>
+      <c r="F222" s="88" t="s">
+        <v>436</v>
+      </c>
+      <c r="G222" s="88"/>
+    </row>
+    <row r="223" spans="2:10">
+      <c r="C223" s="47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10">
+      <c r="C224" s="47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10">
+      <c r="C225" s="47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10">
+      <c r="C226" s="47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10">
+      <c r="C227" s="47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10">
+      <c r="C228" s="47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10">
+      <c r="C229" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10">
+      <c r="C230" s="47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10">
+      <c r="B231" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D231" t="s">
+        <v>391</v>
+      </c>
+      <c r="F231" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="G231" s="88"/>
+    </row>
+    <row r="232" spans="2:10">
+      <c r="C232" s="47" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10">
+      <c r="C233" s="47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10">
+      <c r="B234" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C234" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F234" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10">
+      <c r="B235" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="F235" t="s">
+        <v>566</v>
+      </c>
+      <c r="J235" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="C236" s="47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" ht="15" thickBot="1">
+      <c r="C237" s="58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10">
+      <c r="B238" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D238" t="s">
+        <v>393</v>
+      </c>
+      <c r="F238" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="G238" s="88"/>
+    </row>
+    <row r="239" spans="2:10">
+      <c r="C239" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="D239"/>
+      <c r="F239" s="88"/>
+      <c r="G239" s="88"/>
+    </row>
+    <row r="240" spans="2:10">
+      <c r="B240" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D240" t="s">
+        <v>254</v>
+      </c>
+      <c r="F240" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="G240" s="88"/>
+    </row>
+    <row r="241" spans="2:10">
+      <c r="C241" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="D241"/>
+      <c r="F241" s="88"/>
+      <c r="G241" s="88"/>
+    </row>
+    <row r="242" spans="2:10">
+      <c r="B242" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D242" t="s">
+        <v>392</v>
+      </c>
+      <c r="F242" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="G242" s="88"/>
+    </row>
+    <row r="243" spans="2:10">
+      <c r="C243" s="47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="C244" s="47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="C245" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="C246" s="47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10">
+      <c r="C247" s="47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10">
+      <c r="C248" s="47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10">
+      <c r="C249" s="47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10">
+      <c r="C250" s="47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10">
+      <c r="C251" s="47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="B252" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D252" t="s">
+        <v>394</v>
+      </c>
+      <c r="F252" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="G252" s="88"/>
+    </row>
+    <row r="253" spans="2:10" ht="15" thickBot="1">
+      <c r="C253" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="D253"/>
+      <c r="F253" s="88"/>
+      <c r="G253" s="88"/>
+    </row>
+    <row r="254" spans="2:10">
+      <c r="B254" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D254" t="s">
+        <v>395</v>
+      </c>
+      <c r="F254" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="G254" s="88"/>
+    </row>
+    <row r="255" spans="2:10">
+      <c r="C255" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10">
+      <c r="B256" s="81"/>
+      <c r="C256" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D256" s="82"/>
+      <c r="E256" s="83"/>
+      <c r="F256" s="83"/>
+      <c r="G256" s="83"/>
+      <c r="H256" s="84"/>
+      <c r="I256" s="85"/>
+      <c r="J256" s="86" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10">
+      <c r="B257" s="81"/>
+      <c r="C257" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D257" s="82"/>
+      <c r="E257" s="83"/>
+      <c r="F257" s="83"/>
+      <c r="G257" s="83"/>
+      <c r="H257" s="84"/>
+      <c r="I257" s="85"/>
+      <c r="J257" s="86" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10">
+      <c r="C258" s="47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10">
+      <c r="B259" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F259" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10">
+      <c r="B260" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F260" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10">
+      <c r="C261" s="47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10">
+      <c r="C262" s="47" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10">
+      <c r="C263" s="47" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10">
+      <c r="C264" s="47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10">
+      <c r="C265" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10">
+      <c r="C266" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10">
+      <c r="C267" t="s">
         <v>476</v>
       </c>
-      <c r="H133" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="I133" s="16"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1"/>
-      <c r="B134" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G134" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="H134" s="69" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15" thickBot="1">
-      <c r="A135" s="1"/>
-      <c r="B135" s="3">
-        <v>0</v>
-      </c>
-      <c r="C135" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D135" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G135" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="I135" s="28" t="s">
+    </row>
+    <row r="268" spans="2:10">
+      <c r="C268" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" ht="15" thickBot="1">
+      <c r="C269" s="59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10">
+      <c r="C270" s="47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10">
+      <c r="C271" s="47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10">
+      <c r="C272" s="47" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10">
+      <c r="C273" s="47" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10">
+      <c r="C274" s="47" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10">
+      <c r="B275" s="3">
+        <v>90</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F275" t="s">
+        <v>515</v>
+      </c>
+      <c r="J275" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10">
+      <c r="C276" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1"/>
-      <c r="C136" s="71"/>
-      <c r="D136" s="29"/>
-      <c r="I136" s="28"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1"/>
-      <c r="C137" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D137" s="5" t="s">
+      <c r="D276" s="60"/>
+    </row>
+    <row r="277" spans="2:10">
+      <c r="C277" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D277" s="60"/>
+    </row>
+    <row r="278" spans="2:10">
+      <c r="C278" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F278" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10">
+      <c r="C279" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D279" s="60"/>
+    </row>
+    <row r="280" spans="2:10">
+      <c r="C280" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D280" s="60"/>
+    </row>
+    <row r="281" spans="2:10">
+      <c r="B281" s="3">
+        <v>25</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D281" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="F281" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10">
+      <c r="C282" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D282" s="60"/>
+    </row>
+    <row r="283" spans="2:10">
+      <c r="C283" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F283" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10">
+      <c r="C284" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D284" s="60"/>
+    </row>
+    <row r="285" spans="2:10">
+      <c r="C285" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D285" s="60"/>
+    </row>
+    <row r="286" spans="2:10">
+      <c r="B286" s="3">
+        <v>28</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F286" t="s">
         <v>545</v>
       </c>
-      <c r="F137" s="74" t="s">
-        <v>538</v>
-      </c>
-      <c r="I137" s="28"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1"/>
-      <c r="C138" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F138" s="74" t="s">
-        <v>539</v>
-      </c>
-      <c r="I138" s="28"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1"/>
-      <c r="C139" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F139" s="74" t="s">
-        <v>540</v>
-      </c>
-      <c r="I139" s="28"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1"/>
-      <c r="C140" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F140" s="74" t="s">
+    </row>
+    <row r="287" spans="2:10">
+      <c r="C287" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="I140" s="28"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1"/>
-      <c r="C141" s="71"/>
-      <c r="F141" s="2"/>
-      <c r="I141" s="28"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1"/>
-      <c r="C142" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F142" s="78" t="s">
+    </row>
+    <row r="288" spans="2:10">
+      <c r="C288" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I142" s="28"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1"/>
-      <c r="C143" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F143" s="78" t="s">
+    </row>
+    <row r="289" spans="2:6">
+      <c r="C289" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="I143" s="28"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1"/>
-      <c r="C144" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F144" s="78" t="s">
-        <v>544</v>
-      </c>
-      <c r="I144" s="28"/>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="1"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="29"/>
-      <c r="I145" s="28"/>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="C146" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="I146" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="C147" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="C148" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K148" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="C149" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K149" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="C150" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="K150" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="C151" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="C152" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="C153" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="C154" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="C155" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="C156" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="C157" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="C158" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="C159" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="C160" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" ht="15" thickBot="1">
-      <c r="C161" s="58" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3">
-      <c r="C162" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3">
-      <c r="C163" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3">
-      <c r="C164" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="165" spans="3:3">
-      <c r="C165" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="166" spans="3:3">
-      <c r="C166" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3">
-      <c r="C167" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3">
-      <c r="C168" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="2" t="s">
+    </row>
+    <row r="290" spans="2:6">
+      <c r="C290" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F290" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6">
+      <c r="C291" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6">
+      <c r="C292" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6">
+      <c r="C293" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6">
+      <c r="C294" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6">
+      <c r="C295" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6">
+      <c r="B296" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6">
+      <c r="B297" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F297" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6">
+      <c r="B298" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F298" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6">
+      <c r="B299" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F299" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6">
+      <c r="C300" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6">
+      <c r="C301" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="C303" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6">
+      <c r="C304"/>
+    </row>
+    <row r="306" spans="2:10">
+      <c r="B306" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D306" s="48" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="171" spans="3:3">
-      <c r="C171" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="172" spans="3:3">
-      <c r="C172" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="175" spans="3:3">
-      <c r="C175" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="176" spans="3:3">
-      <c r="C176" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="177" spans="3:9" ht="15" thickBot="1">
-      <c r="C177" s="58" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="179" spans="3:9">
-      <c r="C179" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="181" spans="3:9">
-      <c r="C181" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G181" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="I181" s="15" t="s">
+      <c r="J306" s="14" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="182" spans="3:9">
-      <c r="C182" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G182" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="I182" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="184" spans="3:9">
-      <c r="C184" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="185" spans="3:9" ht="15" thickBot="1">
-      <c r="C185" s="58"/>
-    </row>
-    <row r="186" spans="3:9">
-      <c r="C186" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="G186" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="I186" s="18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="187" spans="3:9">
-      <c r="C187" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="188" spans="3:9">
-      <c r="C188" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="189" spans="3:9">
-      <c r="C189" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="190" spans="3:9">
-      <c r="C190" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="191" spans="3:9">
-      <c r="C191" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="192" spans="3:9">
-      <c r="C192" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="193" spans="3:9">
-      <c r="C193" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="194" spans="3:9">
-      <c r="C194" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="195" spans="3:9">
-      <c r="C195" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="196" spans="3:9">
-      <c r="C196" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="197" spans="3:9">
-      <c r="C197" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="198" spans="3:9">
-      <c r="C198" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="199" spans="3:9">
-      <c r="C199" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="200" spans="3:9">
-      <c r="C200" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="201" spans="3:9" ht="15" thickBot="1">
-      <c r="C201" s="58" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="202" spans="3:9">
-      <c r="C202" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="G202" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="I202" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="203" spans="3:9">
-      <c r="C203" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="G203" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="I203" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="204" spans="3:9">
-      <c r="C204" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="G204" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="I204" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="205" spans="3:9">
-      <c r="C205" s="48" t="s">
-        <v>516</v>
-      </c>
-      <c r="G205" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="I205" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="207" spans="3:9">
-      <c r="C207" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9">
-      <c r="B209" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D209" t="s">
-        <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9">
-      <c r="C210" s="48" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9">
-      <c r="C211" s="48" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9">
-      <c r="C212" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9">
-      <c r="C213" s="48" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9">
-      <c r="C214" s="48" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9">
-      <c r="C215" s="48" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9">
-      <c r="C216" s="48" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9">
-      <c r="C217" s="48" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9">
-      <c r="B218" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D218" t="s">
-        <v>418</v>
-      </c>
-      <c r="F218" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9">
-      <c r="C219" s="48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9">
-      <c r="C220" s="48" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9">
-      <c r="C221" s="48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9">
-      <c r="B222" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D222" s="19" t="s">
+    <row r="312" spans="2:10" ht="27">
+      <c r="C312" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="F222" t="s">
-        <v>470</v>
-      </c>
-      <c r="I222" s="15" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9">
-      <c r="C223" s="48" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" ht="15" thickBot="1">
-      <c r="C224" s="59" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6">
-      <c r="B225" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D225" t="s">
-        <v>420</v>
-      </c>
-      <c r="F225" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6">
-      <c r="C226" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="D226"/>
-    </row>
-    <row r="227" spans="2:6">
-      <c r="B227" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D227" t="s">
-        <v>268</v>
-      </c>
-      <c r="F227" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6">
-      <c r="C228" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="D228"/>
-    </row>
-    <row r="229" spans="2:6">
-      <c r="B229" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D229" t="s">
-        <v>419</v>
-      </c>
-      <c r="F229" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6">
-      <c r="C230" s="48" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6">
-      <c r="C231" s="48" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="232" spans="2:6">
-      <c r="C232" s="48" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="233" spans="2:6">
-      <c r="C233" s="48" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6">
-      <c r="C234" s="48" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6">
-      <c r="C235" s="48" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6">
-      <c r="C236" s="48" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6">
-      <c r="C237" s="48" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6">
-      <c r="C238" s="48" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6">
-      <c r="B239" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D239" t="s">
-        <v>421</v>
-      </c>
-      <c r="F239" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" ht="15" thickBot="1">
-      <c r="C240" s="59" t="s">
-        <v>454</v>
-      </c>
-      <c r="D240"/>
-    </row>
-    <row r="241" spans="2:9">
-      <c r="B241" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D241" t="s">
-        <v>422</v>
-      </c>
-      <c r="F241" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9">
-      <c r="C242" s="48" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9">
-      <c r="B243" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9">
-      <c r="C244" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9">
-      <c r="C245" s="48" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9">
-      <c r="C246" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I246" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9">
-      <c r="C247" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I247" s="15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9">
-      <c r="C248" s="48" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9">
-      <c r="C249" s="48" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9">
-      <c r="C250" s="48" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9">
-      <c r="C251" s="48" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="252" spans="2:9">
-      <c r="C252" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="253" spans="2:9">
-      <c r="C253" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="254" spans="2:9">
-      <c r="C254" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9">
-      <c r="C255" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="256" spans="2:9" ht="15" thickBot="1">
-      <c r="C256" s="60" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="257" spans="2:9">
-      <c r="C257" s="48" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="258" spans="2:9">
-      <c r="C258" s="48" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="259" spans="2:9">
-      <c r="C259" s="48" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="260" spans="2:9">
-      <c r="C260" s="48" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="261" spans="2:9">
-      <c r="C261" s="48" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="262" spans="2:9">
-      <c r="B262" s="3">
-        <v>90</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D262" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="I262" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="264" spans="2:9">
-      <c r="C264" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D264" s="61" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="266" spans="2:9">
-      <c r="C266" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="267" spans="2:9">
-      <c r="C267" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="268" spans="2:9">
-      <c r="C268" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="269" spans="2:9">
-      <c r="C269" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="270" spans="2:9">
-      <c r="C270" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="271" spans="2:9">
-      <c r="C271" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9">
-      <c r="B272" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="273" spans="2:9">
-      <c r="B273" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="274" spans="2:9">
-      <c r="B274" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="275" spans="2:9">
-      <c r="B275" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="276" spans="2:9">
-      <c r="C276" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="277" spans="2:9">
-      <c r="C277" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="279" spans="2:9">
-      <c r="C279" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="280" spans="2:9">
-      <c r="C280"/>
-    </row>
-    <row r="282" spans="2:9">
-      <c r="B282" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D282" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="I282" s="15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="288" spans="2:9" ht="27">
-      <c r="C288" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C288" r:id="rId1"/>
+    <hyperlink ref="C312" r:id="rId1"/>
     <hyperlink ref="A1" r:id="rId2"/>
     <hyperlink ref="F1" r:id="rId3"/>
-    <hyperlink ref="G2" r:id="rId4" display="scancode.doc"/>
+    <hyperlink ref="H2" r:id="rId4" display="scancode.doc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
